--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1917576.795391821</v>
+        <v>-1920452.797067503</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,67 +662,67 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
+        <v>166.0848681674621</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.097100052852173</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>39.59534813877095</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>263.2420339516666</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>206.909162189371</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>144.0576027644702</v>
-      </c>
-      <c r="S2" t="n">
-        <v>206.9118586999128</v>
-      </c>
-      <c r="T2" t="n">
-        <v>193.5929820124958</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>86.41336141304842</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>11.3727523776317</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>128.225672285508</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>31.60939682146679</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,61 +908,61 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>15.16194852731947</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>221.2006630000037</v>
+      </c>
+      <c r="X5" t="n">
         <v>276.1565137023555</v>
       </c>
-      <c r="H5" t="n">
+      <c r="Y5" t="n">
         <v>276.1565137023555</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>276.1565137023555</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>236.3626115273232</v>
       </c>
     </row>
     <row r="6">
@@ -975,16 +975,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.223763435107132</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>95.48084390037957</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>59.7119245034346</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>175.1311939478779</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>175.1311939478779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>322.9957434442358</v>
+        <v>412.6926237828344</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>48.27083703815642</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>129.0246247964033</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I11" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391402</v>
       </c>
       <c r="T11" t="n">
         <v>200.3588553388432</v>
@@ -1427,7 +1427,7 @@
         <v>250.930128170424</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1467,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I12" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>77.20118346636183</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>124.5091510096761</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I13" t="n">
-        <v>85.38474479387597</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>72.53368725392016</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>183.413210894985</v>
@@ -1585,7 +1585,7 @@
         <v>286.1919452026818</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I14" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T14" t="n">
-        <v>200.3588553388453</v>
+        <v>200.3588553388432</v>
       </c>
       <c r="U14" t="n">
         <v>250.930128170424</v>
@@ -1704,7 +1704,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I15" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>117.6042760133138</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.6611032052931</v>
+        <v>7.232003132479404</v>
       </c>
       <c r="H16" t="n">
-        <v>141.5124554365666</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I16" t="n">
-        <v>85.38474479387597</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>72.53368725392016</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>183.413210894985</v>
       </c>
       <c r="T16" t="n">
         <v>217.9906640465736</v>
@@ -1825,10 +1825,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1862,7 +1862,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I17" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T17" t="n">
         <v>200.3588553388432</v>
@@ -1941,7 +1941,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I18" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>134.0778131272266</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2017,10 @@
         <v>165.6611032052931</v>
       </c>
       <c r="H19" t="n">
-        <v>141.5124554365666</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>72.53368725392016</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S19" t="n">
         <v>183.413210894985</v>
@@ -2056,16 +2056,16 @@
         <v>217.9906640465736</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1919452026818</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>111.2746068895744</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I20" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T20" t="n">
         <v>200.3588553388432</v>
@@ -2178,7 +2178,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I21" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2254,10 @@
         <v>165.6611032052931</v>
       </c>
       <c r="H22" t="n">
-        <v>141.5124554365666</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I22" t="n">
-        <v>85.38474479387597</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.9906640465736</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>143.9292349262252</v>
+        <v>286.1919452026818</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>201.0503200051864</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I23" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,13 +2366,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T23" t="n">
         <v>200.3588553388432</v>
       </c>
       <c r="U23" t="n">
-        <v>250.930128170424</v>
+        <v>250.9301281704241</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2415,7 +2415,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I24" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>22.57269859739524</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.6611032052931</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I25" t="n">
-        <v>85.38474479387597</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>72.53368725392016</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S25" t="n">
         <v>183.413210894985</v>
@@ -2530,13 +2530,13 @@
         <v>217.9906640465736</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1919452026818</v>
+        <v>278.0275054195269</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I26" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T26" t="n">
         <v>200.3588553388432</v>
@@ -2652,7 +2652,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I27" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.6611032052931</v>
       </c>
       <c r="H28" t="n">
-        <v>141.5124554365666</v>
+        <v>107.9574433912716</v>
       </c>
       <c r="I28" t="n">
-        <v>85.38474479387597</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>72.53368725392016</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S28" t="n">
         <v>183.413210894985</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.9906640465736</v>
       </c>
       <c r="U28" t="n">
-        <v>91.80212384724891</v>
+        <v>286.1919452026818</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2810,7 +2810,7 @@
         <v>286.2811431529499</v>
       </c>
       <c r="I29" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>90.6604451639143</v>
+        <v>90.66044516391428</v>
       </c>
       <c r="T29" t="n">
         <v>200.3588553388432</v>
@@ -2889,7 +2889,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I30" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.6611032052931</v>
       </c>
       <c r="H31" t="n">
-        <v>141.5124554365666</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I31" t="n">
-        <v>85.38474479387597</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>72.53368725392016</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S31" t="n">
         <v>183.413210894985</v>
       </c>
       <c r="T31" t="n">
-        <v>217.9906640465736</v>
+        <v>17.18883090265072</v>
       </c>
       <c r="U31" t="n">
         <v>286.1919452026818</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>43.04524775685388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,10 +3035,10 @@
         <v>324.203482980641</v>
       </c>
       <c r="E32" t="n">
-        <v>351.4508114322198</v>
+        <v>362.9805313388327</v>
       </c>
       <c r="F32" t="n">
-        <v>376.3964871016695</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>379.6291196574373</v>
@@ -3047,7 +3047,7 @@
         <v>255.801584512908</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>60.18088652387236</v>
+        <v>60.18088652387233</v>
       </c>
       <c r="T32" t="n">
         <v>169.8792966988013</v>
@@ -3086,10 +3086,10 @@
         <v>220.4505695303821</v>
       </c>
       <c r="V32" t="n">
-        <v>319.0343413184361</v>
+        <v>297.272699830093</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>318.7614100773711</v>
       </c>
       <c r="X32" t="n">
         <v>339.2515420384271</v>
@@ -3126,7 +3126,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I33" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>118.1359143781704</v>
       </c>
       <c r="E34" t="n">
-        <v>115.9544040065271</v>
+        <v>115.9544040065272</v>
       </c>
       <c r="F34" t="n">
         <v>114.9414893828893</v>
@@ -3205,7 +3205,7 @@
         <v>111.0328967965246</v>
       </c>
       <c r="I34" t="n">
-        <v>54.90518615383402</v>
+        <v>54.90518615383401</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.05412861387822</v>
+        <v>42.05412861387819</v>
       </c>
       <c r="S34" t="n">
         <v>152.9336522549431</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>352.2542830234386</v>
+        <v>352.2542830234387</v>
       </c>
       <c r="C35" t="n">
-        <v>334.7933331309656</v>
+        <v>334.7933331309657</v>
       </c>
       <c r="D35" t="n">
-        <v>324.203482980641</v>
+        <v>324.2034829806411</v>
       </c>
       <c r="E35" t="n">
-        <v>351.4508114322198</v>
+        <v>373.2124529205622</v>
       </c>
       <c r="F35" t="n">
-        <v>376.3964871016695</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>379.6291196574373</v>
+        <v>379.6291196574374</v>
       </c>
       <c r="H35" t="n">
-        <v>255.801584512908</v>
+        <v>255.8015845129081</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3323,7 @@
         <v>220.4505695303821</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>297.272699830093</v>
       </c>
       <c r="W35" t="n">
         <v>318.7614100773711</v>
@@ -3332,7 +3332,7 @@
         <v>339.2515420384271</v>
       </c>
       <c r="Y35" t="n">
-        <v>377.5200215043528</v>
+        <v>355.7583800160117</v>
       </c>
     </row>
     <row r="36">
@@ -3363,7 +3363,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I36" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3430,19 +3430,19 @@
         <v>118.1359143781704</v>
       </c>
       <c r="E37" t="n">
-        <v>115.9544040065272</v>
+        <v>115.9544040065273</v>
       </c>
       <c r="F37" t="n">
         <v>114.9414893828893</v>
       </c>
       <c r="G37" t="n">
-        <v>135.1815445652511</v>
+        <v>135.1815445652512</v>
       </c>
       <c r="H37" t="n">
         <v>111.0328967965246</v>
       </c>
       <c r="I37" t="n">
-        <v>54.90518615383402</v>
+        <v>54.90518615383404</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.05412861387822</v>
+        <v>42.05412861387823</v>
       </c>
       <c r="S37" t="n">
         <v>152.9336522549431</v>
@@ -3490,7 +3490,7 @@
         <v>195.2300967489952</v>
       </c>
       <c r="Y37" t="n">
-        <v>188.1050947120528</v>
+        <v>188.1050947120529</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>352.2542830234386</v>
       </c>
       <c r="C38" t="n">
         <v>334.7933331309656</v>
@@ -3509,10 +3509,10 @@
         <v>324.203482980641</v>
       </c>
       <c r="E38" t="n">
-        <v>373.2124529205611</v>
+        <v>373.2124529205642</v>
       </c>
       <c r="F38" t="n">
-        <v>376.3964871016695</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>379.6291196574373</v>
@@ -3554,7 +3554,7 @@
         <v>60.18088652387233</v>
       </c>
       <c r="T38" t="n">
-        <v>169.8792966988012</v>
+        <v>169.8792966988013</v>
       </c>
       <c r="U38" t="n">
         <v>220.4505695303821</v>
@@ -3600,7 +3600,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I39" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>149.3524215418953</v>
+        <v>149.3524215418954</v>
       </c>
       <c r="C40" t="n">
         <v>136.7672624585859</v>
@@ -3679,7 +3679,7 @@
         <v>111.0328967965246</v>
       </c>
       <c r="I40" t="n">
-        <v>54.90518615383399</v>
+        <v>54.90518615383401</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3709,16 @@
         <v>42.05412861387819</v>
       </c>
       <c r="S40" t="n">
-        <v>152.933652254943</v>
+        <v>152.9336522549431</v>
       </c>
       <c r="T40" t="n">
-        <v>187.5111054065316</v>
+        <v>187.5111054065317</v>
       </c>
       <c r="U40" t="n">
         <v>255.7123865626399</v>
       </c>
       <c r="V40" t="n">
-        <v>221.658084683786</v>
+        <v>221.6580846837861</v>
       </c>
       <c r="W40" t="n">
         <v>256.0434396965491</v>
@@ -3740,10 +3740,10 @@
         <v>352.2542830234386</v>
       </c>
       <c r="C41" t="n">
-        <v>334.7933331309656</v>
+        <v>356.554974619309</v>
       </c>
       <c r="D41" t="n">
-        <v>324.203482980641</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>351.4508114322198</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>60.18088652387239</v>
+        <v>60.18088652387233</v>
       </c>
       <c r="T41" t="n">
         <v>169.8792966988013</v>
@@ -3800,10 +3800,10 @@
         <v>297.272699830093</v>
       </c>
       <c r="W41" t="n">
-        <v>340.5230515657142</v>
+        <v>318.7614100773711</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>339.2515420384271</v>
       </c>
       <c r="Y41" t="n">
         <v>355.7583800160116</v>
@@ -3837,7 +3837,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I42" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>114.9414893828893</v>
       </c>
       <c r="G43" t="n">
-        <v>135.1815445652512</v>
+        <v>135.1815445652511</v>
       </c>
       <c r="H43" t="n">
         <v>111.0328967965246</v>
       </c>
       <c r="I43" t="n">
-        <v>54.90518615383404</v>
+        <v>54.90518615383401</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.05412861387823</v>
+        <v>42.05412861387819</v>
       </c>
       <c r="S43" t="n">
         <v>152.9336522549431</v>
@@ -3964,7 +3964,7 @@
         <v>195.2300967489952</v>
       </c>
       <c r="Y43" t="n">
-        <v>188.1050947120529</v>
+        <v>188.1050947120528</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>352.2542830234386</v>
       </c>
       <c r="C44" t="n">
-        <v>334.7933331309656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>345.9651244689844</v>
@@ -3986,7 +3986,7 @@
         <v>351.4508114322198</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>376.3964871016695</v>
       </c>
       <c r="G44" t="n">
         <v>379.6291196574373</v>
@@ -4074,7 +4074,7 @@
         <v>85.39551073345015</v>
       </c>
       <c r="I45" t="n">
-        <v>3.839601617205503</v>
+        <v>3.839601617205489</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4141,19 +4141,19 @@
         <v>118.1359143781704</v>
       </c>
       <c r="E46" t="n">
-        <v>115.9544040065272</v>
+        <v>115.9544040065273</v>
       </c>
       <c r="F46" t="n">
         <v>114.9414893828893</v>
       </c>
       <c r="G46" t="n">
-        <v>135.1815445652511</v>
+        <v>135.1815445652512</v>
       </c>
       <c r="H46" t="n">
         <v>111.0328967965246</v>
       </c>
       <c r="I46" t="n">
-        <v>54.90518615383402</v>
+        <v>54.90518615383404</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>195.2300967489952</v>
       </c>
       <c r="Y46" t="n">
-        <v>188.1050947120528</v>
+        <v>188.1050947120529</v>
       </c>
     </row>
   </sheetData>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>502.9050615875969</v>
+        <v>747.0717902607699</v>
       </c>
       <c r="C2" t="n">
-        <v>502.9050615875969</v>
+        <v>747.0717902607699</v>
       </c>
       <c r="D2" t="n">
-        <v>502.9050615875969</v>
+        <v>481.1707458651471</v>
       </c>
       <c r="E2" t="n">
-        <v>502.9050615875969</v>
+        <v>215.2697014695243</v>
       </c>
       <c r="F2" t="n">
-        <v>495.9595608383935</v>
+        <v>208.3242007203208</v>
       </c>
       <c r="G2" t="n">
-        <v>230.0585164427707</v>
+        <v>192.9603407164508</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0585164427707</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="I2" t="n">
-        <v>21.05936271613333</v>
+        <v>25.19784761800421</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L2" t="n">
-        <v>330.254671414236</v>
+        <v>330.2546714142361</v>
       </c>
       <c r="M2" t="n">
         <v>563.3128681098023</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369327</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O2" t="n">
         <v>950.1371873885138</v>
@@ -4352,28 +4352,28 @@
         <v>1052.968135806666</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S2" t="n">
-        <v>698.4535282668857</v>
+        <v>1012.972834656393</v>
       </c>
       <c r="T2" t="n">
-        <v>502.9050615875969</v>
+        <v>1012.972834656393</v>
       </c>
       <c r="U2" t="n">
-        <v>502.9050615875969</v>
+        <v>1012.972834656393</v>
       </c>
       <c r="V2" t="n">
-        <v>502.9050615875969</v>
+        <v>1012.972834656393</v>
       </c>
       <c r="W2" t="n">
-        <v>502.9050615875969</v>
+        <v>1012.972834656393</v>
       </c>
       <c r="X2" t="n">
-        <v>502.9050615875969</v>
+        <v>747.0717902607699</v>
       </c>
       <c r="Y2" t="n">
-        <v>502.9050615875969</v>
+        <v>747.0717902607699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.970480313511</v>
+        <v>330.4652713148488</v>
       </c>
       <c r="C3" t="n">
-        <v>416.517451032384</v>
+        <v>330.4652713148488</v>
       </c>
       <c r="D3" t="n">
-        <v>267.5830413711327</v>
+        <v>330.4652713148488</v>
       </c>
       <c r="E3" t="n">
-        <v>108.3455863656772</v>
+        <v>171.2278163093933</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>171.2278163093933</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>32.54699138040777</v>
       </c>
       <c r="H3" t="n">
         <v>21.05936271613333</v>
@@ -4410,49 +4410,49 @@
         <v>21.05936271613333</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="L3" t="n">
-        <v>394.9337607940759</v>
+        <v>261.6628906109958</v>
       </c>
       <c r="M3" t="n">
-        <v>655.5433744062259</v>
+        <v>522.2725042231457</v>
       </c>
       <c r="N3" t="n">
-        <v>655.5433744062259</v>
+        <v>600.5536970360758</v>
       </c>
       <c r="O3" t="n">
-        <v>915.9564384987179</v>
+        <v>860.9667611285679</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>954.9030226480426</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>752.9179650631185</v>
       </c>
       <c r="W3" t="n">
-        <v>798.7307790784648</v>
+        <v>498.6806083349168</v>
       </c>
       <c r="X3" t="n">
-        <v>798.7307790784648</v>
+        <v>498.6806083349168</v>
       </c>
       <c r="Y3" t="n">
-        <v>590.970480313511</v>
+        <v>498.6806083349168</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="C4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="D4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="E4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="F4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="G4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H4" t="n">
-        <v>52.98804637418059</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I4" t="n">
         <v>21.05936271613333</v>
@@ -4528,10 +4528,10 @@
         <v>182.5089274706534</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706534</v>
+        <v>21.05936271613333</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>586.9299687188374</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="C5" t="n">
-        <v>586.9299687188374</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="D5" t="n">
-        <v>586.9299687188374</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="E5" t="n">
-        <v>586.9299687188374</v>
+        <v>44.35312136793684</v>
       </c>
       <c r="F5" t="n">
-        <v>579.9844679696339</v>
+        <v>37.40762061873336</v>
       </c>
       <c r="G5" t="n">
-        <v>301.0384945329112</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="H5" t="n">
         <v>22.09252109618844</v>
@@ -4568,19 +4568,19 @@
         <v>22.09252109618844</v>
       </c>
       <c r="K5" t="n">
-        <v>142.8373253438684</v>
+        <v>142.8373253438683</v>
       </c>
       <c r="L5" t="n">
         <v>344.9085595412869</v>
       </c>
       <c r="M5" t="n">
-        <v>586.3582880173956</v>
+        <v>586.3582880173957</v>
       </c>
       <c r="N5" t="n">
-        <v>817.0829279823542</v>
+        <v>817.0829279823544</v>
       </c>
       <c r="O5" t="n">
-        <v>989.7620250901064</v>
+        <v>989.7620250901066</v>
       </c>
       <c r="P5" t="n">
         <v>1099.465256491931</v>
@@ -4604,13 +4604,13 @@
         <v>1104.626054809422</v>
       </c>
       <c r="W5" t="n">
-        <v>825.6800813726992</v>
+        <v>881.1910416781051</v>
       </c>
       <c r="X5" t="n">
-        <v>825.6800813726992</v>
+        <v>602.2450682413823</v>
       </c>
       <c r="Y5" t="n">
-        <v>586.9299687188374</v>
+        <v>323.2990948046596</v>
       </c>
     </row>
     <row r="6">
@@ -4620,16 +4620,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>317.5614887305547</v>
+        <v>31.40945385892292</v>
       </c>
       <c r="C6" t="n">
-        <v>317.5614887305547</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="D6" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="E6" t="n">
-        <v>168.6270790693035</v>
+        <v>22.09252109618844</v>
       </c>
       <c r="F6" t="n">
         <v>22.09252109618844</v>
@@ -4644,52 +4644,52 @@
         <v>22.09252109618844</v>
       </c>
       <c r="J6" t="n">
-        <v>22.09252109618844</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="K6" t="n">
-        <v>159.4923828364511</v>
+        <v>28.39914141318535</v>
       </c>
       <c r="L6" t="n">
-        <v>405.6478494291521</v>
+        <v>274.5546080058863</v>
       </c>
       <c r="M6" t="n">
-        <v>405.6478494291521</v>
+        <v>547.9495565712182</v>
       </c>
       <c r="N6" t="n">
-        <v>562.3310704112777</v>
+        <v>821.3445051365501</v>
       </c>
       <c r="O6" t="n">
-        <v>828.8278839945615</v>
+        <v>907.7419348121334</v>
       </c>
       <c r="P6" t="n">
-        <v>1025.71200399185</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="Q6" t="n">
         <v>1104.626054809422</v>
       </c>
       <c r="R6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="S6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="T6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="U6" t="n">
-        <v>1008.180757940352</v>
+        <v>1104.626054809422</v>
       </c>
       <c r="V6" t="n">
-        <v>947.8656826843571</v>
+        <v>869.4739465776793</v>
       </c>
       <c r="W6" t="n">
-        <v>693.6283259561555</v>
+        <v>615.2365898494777</v>
       </c>
       <c r="X6" t="n">
-        <v>485.7768257506228</v>
+        <v>407.3850896439449</v>
       </c>
       <c r="Y6" t="n">
-        <v>485.7768257506228</v>
+        <v>199.624790878991</v>
       </c>
     </row>
     <row r="7">
@@ -4768,7 +4768,7 @@
         <v>198.9927170031359</v>
       </c>
       <c r="Y7" t="n">
-        <v>22.09252109618844</v>
+        <v>198.9927170031359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>898.8784838925781</v>
+        <v>1327.372931623164</v>
       </c>
       <c r="C8" t="n">
-        <v>898.8784838925781</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="D8" t="n">
-        <v>540.6127852858276</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="E8" t="n">
-        <v>540.6127852858276</v>
+        <v>958.4104146827526</v>
       </c>
       <c r="F8" t="n">
-        <v>533.6672845366242</v>
+        <v>951.4649139335492</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.54646147304</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W8" t="n">
-        <v>1662.48357412947</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="X8" t="n">
-        <v>1289.01781586839</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="Y8" t="n">
-        <v>898.8784838925781</v>
+        <v>1327.372931623164</v>
       </c>
     </row>
     <row r="9">
@@ -4857,55 +4857,55 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4920,10 +4920,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>184.2708856551153</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="C10" t="n">
-        <v>184.2708856551153</v>
+        <v>296.2710210862863</v>
       </c>
       <c r="D10" t="n">
-        <v>184.2708856551153</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E10" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>184.2708856551153</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>184.2708856551153</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>184.2708856551153</v>
+        <v>477.919485916526</v>
       </c>
     </row>
     <row r="11">
@@ -5033,46 +5033,46 @@
         <v>393.7779798205721</v>
       </c>
       <c r="H11" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I11" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J11" t="n">
-        <v>351.4652788317716</v>
+        <v>351.4652788317717</v>
       </c>
       <c r="K11" t="n">
-        <v>787.673098403043</v>
+        <v>787.6730984030432</v>
       </c>
       <c r="L11" t="n">
-        <v>1544.127838702527</v>
+        <v>1365.729232573068</v>
       </c>
       <c r="M11" t="n">
-        <v>2218.996104903705</v>
+        <v>2429.187945657008</v>
       </c>
       <c r="N11" t="n">
-        <v>2909.3982535839</v>
+        <v>3119.590094337204</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.990163835142</v>
+        <v>3758.182004588446</v>
       </c>
       <c r="P11" t="n">
-        <v>4058.512584029619</v>
+        <v>4268.704424782923</v>
       </c>
       <c r="Q11" t="n">
-        <v>4603.912754524438</v>
+        <v>4603.912754524436</v>
       </c>
       <c r="R11" t="n">
-        <v>4713.491681196207</v>
+        <v>4713.491681196205</v>
       </c>
       <c r="S11" t="n">
-        <v>4621.91547395993</v>
+        <v>4621.915473959928</v>
       </c>
       <c r="T11" t="n">
-        <v>4419.532791799482</v>
+        <v>4419.53279179948</v>
       </c>
       <c r="U11" t="n">
-        <v>4166.068015869761</v>
+        <v>4166.068015869759</v>
       </c>
       <c r="V11" t="n">
         <v>3835.005128526188</v>
@@ -5106,34 +5106,34 @@
         <v>466.86455607141</v>
       </c>
       <c r="F12" t="n">
-        <v>320.329998098295</v>
+        <v>320.3299980982949</v>
       </c>
       <c r="G12" t="n">
         <v>184.4063107457985</v>
       </c>
       <c r="H12" t="n">
-        <v>98.14821909584887</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I12" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J12" t="n">
         <v>228.6358318675341</v>
       </c>
       <c r="K12" t="n">
-        <v>536.4435490921098</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0100462103533</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M12" t="n">
-        <v>1345.407947035491</v>
+        <v>996.651551887339</v>
       </c>
       <c r="N12" t="n">
-        <v>1930.940689597592</v>
+        <v>1582.18429444944</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.940689597592</v>
+        <v>1930.940689597591</v>
       </c>
       <c r="P12" t="n">
         <v>2323.679075579418</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>625.3366921293709</v>
+        <v>846.35959865879</v>
       </c>
       <c r="C13" t="n">
-        <v>456.400509201464</v>
+        <v>768.3786052584245</v>
       </c>
       <c r="D13" t="n">
-        <v>306.2838697891283</v>
+        <v>618.2619658460887</v>
       </c>
       <c r="E13" t="n">
-        <v>306.2838697891283</v>
+        <v>470.3488722636956</v>
       </c>
       <c r="F13" t="n">
-        <v>306.2838697891283</v>
+        <v>323.4589247657852</v>
       </c>
       <c r="G13" t="n">
-        <v>180.5170505874352</v>
+        <v>323.4589247657852</v>
       </c>
       <c r="H13" t="n">
         <v>180.5170505874352</v>
       </c>
       <c r="I13" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J13" t="n">
         <v>164.9192668969432</v>
       </c>
       <c r="K13" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L13" t="n">
         <v>781.0941016139911</v>
@@ -5215,34 +5215,34 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P13" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q13" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R13" t="n">
-        <v>2239.725689507049</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="S13" t="n">
-        <v>2054.459819916155</v>
+        <v>2127.726170677691</v>
       </c>
       <c r="T13" t="n">
-        <v>1834.267229970121</v>
+        <v>1907.533580731657</v>
       </c>
       <c r="U13" t="n">
-        <v>1545.184457038119</v>
+        <v>1618.450807799655</v>
       </c>
       <c r="V13" t="n">
-        <v>1545.184457038119</v>
+        <v>1363.766319593768</v>
       </c>
       <c r="W13" t="n">
-        <v>1255.767287001158</v>
+        <v>1074.349149556807</v>
       </c>
       <c r="X13" t="n">
-        <v>1027.777736103141</v>
+        <v>846.35959865879</v>
       </c>
       <c r="Y13" t="n">
-        <v>806.9851569596107</v>
+        <v>846.35959865879</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2332.03154295506</v>
+        <v>2332.031542955061</v>
       </c>
       <c r="C14" t="n">
-        <v>1963.069026014648</v>
+        <v>1963.069026014649</v>
       </c>
       <c r="D14" t="n">
-        <v>1604.803327407898</v>
+        <v>1604.803327407899</v>
       </c>
       <c r="E14" t="n">
         <v>1219.015074809654</v>
       </c>
       <c r="F14" t="n">
-        <v>808.0291700200462</v>
+        <v>808.0291700200468</v>
       </c>
       <c r="G14" t="n">
-        <v>393.7779798205721</v>
+        <v>393.777979820572</v>
       </c>
       <c r="H14" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I14" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J14" t="n">
-        <v>351.4652788317716</v>
+        <v>351.4652788317717</v>
       </c>
       <c r="K14" t="n">
-        <v>857.6828241960397</v>
+        <v>787.6730984030432</v>
       </c>
       <c r="L14" t="n">
-        <v>1435.738958366064</v>
+        <v>1365.729232573068</v>
       </c>
       <c r="M14" t="n">
-        <v>2110.607224567242</v>
+        <v>2429.187945657008</v>
       </c>
       <c r="N14" t="n">
-        <v>2801.009373247438</v>
+        <v>3119.590094337204</v>
       </c>
       <c r="O14" t="n">
-        <v>3439.60128349868</v>
+        <v>3758.182004588446</v>
       </c>
       <c r="P14" t="n">
-        <v>4268.704424782924</v>
+        <v>4268.704424782923</v>
       </c>
       <c r="Q14" t="n">
-        <v>4603.912754524438</v>
+        <v>4603.912754524436</v>
       </c>
       <c r="R14" t="n">
-        <v>4713.491681196207</v>
+        <v>4713.491681196205</v>
       </c>
       <c r="S14" t="n">
-        <v>4621.91547395993</v>
+        <v>4621.915473959928</v>
       </c>
       <c r="T14" t="n">
         <v>4419.53279179948</v>
       </c>
       <c r="U14" t="n">
-        <v>4166.068015869759</v>
+        <v>4166.06801586976</v>
       </c>
       <c r="V14" t="n">
-        <v>3835.005128526188</v>
+        <v>3835.005128526189</v>
       </c>
       <c r="W14" t="n">
-        <v>3482.236473256074</v>
+        <v>3482.236473256075</v>
       </c>
       <c r="X14" t="n">
-        <v>3108.770714994994</v>
+        <v>3108.770714994995</v>
       </c>
       <c r="Y14" t="n">
-        <v>2718.631383019182</v>
+        <v>2718.631383019183</v>
       </c>
     </row>
     <row r="15">
@@ -5343,31 +5343,31 @@
         <v>466.86455607141</v>
       </c>
       <c r="F15" t="n">
-        <v>320.329998098295</v>
+        <v>320.3299980982949</v>
       </c>
       <c r="G15" t="n">
         <v>184.4063107457985</v>
       </c>
       <c r="H15" t="n">
-        <v>98.14821909584887</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I15" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J15" t="n">
         <v>228.6358318675341</v>
       </c>
       <c r="K15" t="n">
-        <v>355.3997875709238</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L15" t="n">
-        <v>815.6077903661526</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M15" t="n">
-        <v>1372.00569119129</v>
+        <v>996.651551887339</v>
       </c>
       <c r="N15" t="n">
-        <v>1957.538433753391</v>
+        <v>1582.18429444944</v>
       </c>
       <c r="O15" t="n">
         <v>1957.538433753391</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1073.324794449356</v>
+        <v>625.5670195152599</v>
       </c>
       <c r="C16" t="n">
-        <v>904.3886115214493</v>
+        <v>625.5670195152599</v>
       </c>
       <c r="D16" t="n">
-        <v>785.596413528203</v>
+        <v>625.5670195152599</v>
       </c>
       <c r="E16" t="n">
-        <v>637.6833199458099</v>
+        <v>477.6539259328667</v>
       </c>
       <c r="F16" t="n">
-        <v>490.7933724478995</v>
+        <v>330.7639784349564</v>
       </c>
       <c r="G16" t="n">
-        <v>323.4589247657853</v>
+        <v>323.4589247657852</v>
       </c>
       <c r="H16" t="n">
         <v>180.5170505874352</v>
       </c>
       <c r="I16" t="n">
-        <v>94.26983362392413</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="J16" t="n">
         <v>164.9192668969432</v>
       </c>
       <c r="K16" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L16" t="n">
         <v>781.0941016139911</v>
@@ -5452,34 +5452,34 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P16" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q16" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R16" t="n">
-        <v>2239.725689507049</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="S16" t="n">
-        <v>2239.725689507049</v>
+        <v>2127.726170677691</v>
       </c>
       <c r="T16" t="n">
-        <v>2019.533099561015</v>
+        <v>1907.533580731657</v>
       </c>
       <c r="U16" t="n">
-        <v>1730.450326629013</v>
+        <v>1618.450807799655</v>
       </c>
       <c r="V16" t="n">
-        <v>1475.765838423126</v>
+        <v>1363.766319593768</v>
       </c>
       <c r="W16" t="n">
-        <v>1475.765838423126</v>
+        <v>1074.349149556807</v>
       </c>
       <c r="X16" t="n">
-        <v>1475.765838423126</v>
+        <v>846.35959865879</v>
       </c>
       <c r="Y16" t="n">
-        <v>1254.973259279596</v>
+        <v>625.5670195152599</v>
       </c>
     </row>
     <row r="17">
@@ -5501,19 +5501,19 @@
         <v>1219.015074809654</v>
       </c>
       <c r="F17" t="n">
-        <v>808.0291700200464</v>
+        <v>808.0291700200461</v>
       </c>
       <c r="G17" t="n">
-        <v>393.7779798205721</v>
+        <v>393.777979820572</v>
       </c>
       <c r="H17" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I17" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J17" t="n">
-        <v>351.4652788317716</v>
+        <v>351.4652788317717</v>
       </c>
       <c r="K17" t="n">
         <v>1108.577056848496</v>
@@ -5528,7 +5528,7 @@
         <v>3051.903605899895</v>
       </c>
       <c r="O17" t="n">
-        <v>3690.495516151136</v>
+        <v>3758.182004588446</v>
       </c>
       <c r="P17" t="n">
         <v>4268.704424782923</v>
@@ -5586,7 +5586,7 @@
         <v>184.4063107457985</v>
       </c>
       <c r="H18" t="n">
-        <v>98.14821909584884</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I18" t="n">
         <v>94.2698336239241</v>
@@ -5595,22 +5595,22 @@
         <v>228.6358318675341</v>
       </c>
       <c r="K18" t="n">
-        <v>536.4435490921098</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L18" t="n">
-        <v>996.6515518873387</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M18" t="n">
-        <v>996.6515518873387</v>
+        <v>1345.40794703549</v>
       </c>
       <c r="N18" t="n">
-        <v>1582.18429444944</v>
+        <v>1930.940689597591</v>
       </c>
       <c r="O18" t="n">
-        <v>2095.612565588565</v>
+        <v>1930.940689597591</v>
       </c>
       <c r="P18" t="n">
-        <v>2488.350951570392</v>
+        <v>2323.679075579418</v>
       </c>
       <c r="Q18" t="n">
         <v>2536.295089454935</v>
@@ -5647,34 +5647,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1018.402018904934</v>
+        <v>644.8580851797955</v>
       </c>
       <c r="C19" t="n">
-        <v>849.4658359770276</v>
+        <v>644.8580851797955</v>
       </c>
       <c r="D19" t="n">
-        <v>699.3491965646919</v>
+        <v>494.7414457674597</v>
       </c>
       <c r="E19" t="n">
-        <v>551.4361029822987</v>
+        <v>494.7414457674597</v>
       </c>
       <c r="F19" t="n">
-        <v>404.5461554843884</v>
+        <v>347.8514982695494</v>
       </c>
       <c r="G19" t="n">
-        <v>237.2117078022742</v>
+        <v>180.5170505874352</v>
       </c>
       <c r="H19" t="n">
-        <v>94.2698336239241</v>
+        <v>180.5170505874352</v>
       </c>
       <c r="I19" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J19" t="n">
-        <v>164.9192668969431</v>
+        <v>164.9192668969432</v>
       </c>
       <c r="K19" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L19" t="n">
         <v>781.0941016139911</v>
@@ -5689,10 +5689,10 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P19" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q19" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R19" t="n">
         <v>2239.725689507049</v>
@@ -5704,19 +5704,19 @@
         <v>1834.267229970121</v>
       </c>
       <c r="U19" t="n">
-        <v>1834.267229970121</v>
+        <v>1545.184457038119</v>
       </c>
       <c r="V19" t="n">
-        <v>1579.582741764234</v>
+        <v>1290.499968832232</v>
       </c>
       <c r="W19" t="n">
-        <v>1467.184148946482</v>
+        <v>1001.082798795272</v>
       </c>
       <c r="X19" t="n">
-        <v>1239.194598048465</v>
+        <v>1001.082798795272</v>
       </c>
       <c r="Y19" t="n">
-        <v>1018.402018904934</v>
+        <v>780.2902196517415</v>
       </c>
     </row>
     <row r="20">
@@ -5741,37 +5741,37 @@
         <v>808.0291700200462</v>
       </c>
       <c r="G20" t="n">
-        <v>393.7779798205721</v>
+        <v>393.777979820572</v>
       </c>
       <c r="H20" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I20" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J20" t="n">
-        <v>518.8709278521246</v>
+        <v>351.4652788317717</v>
       </c>
       <c r="K20" t="n">
-        <v>966.0717045325005</v>
+        <v>787.6730984030432</v>
       </c>
       <c r="L20" t="n">
-        <v>1544.127838702525</v>
+        <v>1365.729232573068</v>
       </c>
       <c r="M20" t="n">
-        <v>2218.996104903703</v>
+        <v>2040.597498774246</v>
       </c>
       <c r="N20" t="n">
-        <v>2909.398253583899</v>
+        <v>2730.999647454442</v>
       </c>
       <c r="O20" t="n">
-        <v>3547.99016383514</v>
+        <v>3369.591557705684</v>
       </c>
       <c r="P20" t="n">
-        <v>4058.512584029617</v>
+        <v>3993.453328355365</v>
       </c>
       <c r="Q20" t="n">
-        <v>4603.912754524436</v>
+        <v>4538.853498850184</v>
       </c>
       <c r="R20" t="n">
         <v>4713.491681196205</v>
@@ -5783,16 +5783,16 @@
         <v>4419.53279179948</v>
       </c>
       <c r="U20" t="n">
-        <v>4166.068015869759</v>
+        <v>4166.068015869758</v>
       </c>
       <c r="V20" t="n">
-        <v>3835.005128526188</v>
+        <v>3835.005128526187</v>
       </c>
       <c r="W20" t="n">
-        <v>3482.236473256074</v>
+        <v>3482.236473256073</v>
       </c>
       <c r="X20" t="n">
-        <v>3108.770714994994</v>
+        <v>3108.770714994993</v>
       </c>
       <c r="Y20" t="n">
         <v>2718.631383019182</v>
@@ -5823,31 +5823,31 @@
         <v>184.4063107457985</v>
       </c>
       <c r="H21" t="n">
-        <v>98.14821909584884</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I21" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J21" t="n">
-        <v>94.2698336239241</v>
+        <v>228.6358318675341</v>
       </c>
       <c r="K21" t="n">
-        <v>402.0775508484999</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L21" t="n">
-        <v>862.2855536437287</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M21" t="n">
-        <v>1418.683454468866</v>
+        <v>1372.00569119129</v>
       </c>
       <c r="N21" t="n">
-        <v>2004.216197030967</v>
+        <v>1957.538433753391</v>
       </c>
       <c r="O21" t="n">
-        <v>2004.216197030967</v>
+        <v>1957.538433753391</v>
       </c>
       <c r="P21" t="n">
-        <v>2396.954583012794</v>
+        <v>2350.276819735217</v>
       </c>
       <c r="Q21" t="n">
         <v>2562.892833610734</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>954.5325964561098</v>
+        <v>935.7130529405387</v>
       </c>
       <c r="C22" t="n">
-        <v>785.5964135282029</v>
+        <v>935.7130529405387</v>
       </c>
       <c r="D22" t="n">
         <v>785.5964135282029</v>
@@ -5908,10 +5908,10 @@
         <v>94.2698336239241</v>
       </c>
       <c r="J22" t="n">
-        <v>164.9192668969431</v>
+        <v>164.9192668969432</v>
       </c>
       <c r="K22" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L22" t="n">
         <v>781.0941016139911</v>
@@ -5926,34 +5926,34 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P22" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q22" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R22" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="S22" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="T22" t="n">
-        <v>2092.79945032255</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="U22" t="n">
-        <v>1947.416384740505</v>
+        <v>2023.909267336583</v>
       </c>
       <c r="V22" t="n">
-        <v>1692.731896534618</v>
+        <v>1769.224779130696</v>
       </c>
       <c r="W22" t="n">
-        <v>1403.314726497657</v>
+        <v>1566.143647812326</v>
       </c>
       <c r="X22" t="n">
-        <v>1175.32517559964</v>
+        <v>1338.154096914308</v>
       </c>
       <c r="Y22" t="n">
-        <v>954.5325964561098</v>
+        <v>1117.361517770778</v>
       </c>
     </row>
     <row r="23">
@@ -5981,25 +5981,25 @@
         <v>393.7779798205721</v>
       </c>
       <c r="H23" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I23" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J23" t="n">
-        <v>351.4652788317716</v>
+        <v>518.8709278521247</v>
       </c>
       <c r="K23" t="n">
-        <v>966.0717045325005</v>
+        <v>966.0717045324996</v>
       </c>
       <c r="L23" t="n">
-        <v>1544.127838702525</v>
+        <v>1544.127838702524</v>
       </c>
       <c r="M23" t="n">
-        <v>2218.996104903703</v>
+        <v>2218.996104903702</v>
       </c>
       <c r="N23" t="n">
-        <v>2909.398253583899</v>
+        <v>2909.398253583898</v>
       </c>
       <c r="O23" t="n">
         <v>3547.99016383514</v>
@@ -6060,34 +6060,34 @@
         <v>184.4063107457985</v>
       </c>
       <c r="H24" t="n">
-        <v>98.14821909584884</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I24" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J24" t="n">
-        <v>94.2698336239241</v>
+        <v>228.6358318675341</v>
       </c>
       <c r="K24" t="n">
-        <v>402.0775508484999</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L24" t="n">
-        <v>862.2855536437287</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M24" t="n">
-        <v>1418.683454468866</v>
+        <v>996.651551887339</v>
       </c>
       <c r="N24" t="n">
-        <v>1444.110162614265</v>
+        <v>1417.512418458466</v>
       </c>
       <c r="O24" t="n">
-        <v>1957.538433753391</v>
+        <v>1930.940689597591</v>
       </c>
       <c r="P24" t="n">
-        <v>2350.276819735217</v>
+        <v>2323.679075579418</v>
       </c>
       <c r="Q24" t="n">
-        <v>2562.892833610734</v>
+        <v>2536.295089454935</v>
       </c>
       <c r="R24" t="n">
         <v>2562.892833610734</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>370.652203923484</v>
+        <v>1104.649235868446</v>
       </c>
       <c r="C25" t="n">
-        <v>370.652203923484</v>
+        <v>935.7130529405387</v>
       </c>
       <c r="D25" t="n">
-        <v>370.652203923484</v>
+        <v>785.5964135282029</v>
       </c>
       <c r="E25" t="n">
-        <v>370.652203923484</v>
+        <v>637.6833199458098</v>
       </c>
       <c r="F25" t="n">
-        <v>347.8514982695494</v>
+        <v>490.7933724478995</v>
       </c>
       <c r="G25" t="n">
-        <v>180.5170505874352</v>
+        <v>323.4589247657852</v>
       </c>
       <c r="H25" t="n">
         <v>180.5170505874352</v>
@@ -6145,10 +6145,10 @@
         <v>94.2698336239241</v>
       </c>
       <c r="J25" t="n">
-        <v>164.9192668969431</v>
+        <v>164.9192668969432</v>
       </c>
       <c r="K25" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L25" t="n">
         <v>781.0941016139911</v>
@@ -6163,10 +6163,10 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P25" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q25" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R25" t="n">
         <v>2239.725689507049</v>
@@ -6178,19 +6178,19 @@
         <v>1834.267229970121</v>
       </c>
       <c r="U25" t="n">
-        <v>1545.184457038119</v>
+        <v>1553.431365909993</v>
       </c>
       <c r="V25" t="n">
-        <v>1290.499968832232</v>
+        <v>1553.431365909993</v>
       </c>
       <c r="W25" t="n">
-        <v>1001.082798795271</v>
+        <v>1553.431365909993</v>
       </c>
       <c r="X25" t="n">
-        <v>773.0932478972538</v>
+        <v>1325.441815011976</v>
       </c>
       <c r="Y25" t="n">
-        <v>552.3006687537237</v>
+        <v>1104.649235868446</v>
       </c>
     </row>
     <row r="26">
@@ -6206,43 +6206,43 @@
         <v>1963.069026014649</v>
       </c>
       <c r="D26" t="n">
-        <v>1604.803327407898</v>
+        <v>1604.803327407899</v>
       </c>
       <c r="E26" t="n">
         <v>1219.015074809654</v>
       </c>
       <c r="F26" t="n">
-        <v>808.0291700200464</v>
+        <v>808.0291700200461</v>
       </c>
       <c r="G26" t="n">
-        <v>393.7779798205723</v>
+        <v>393.777979820572</v>
       </c>
       <c r="H26" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I26" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J26" t="n">
-        <v>351.4652788317716</v>
+        <v>518.8709278521247</v>
       </c>
       <c r="K26" t="n">
-        <v>787.673098403043</v>
+        <v>955.0787474233963</v>
       </c>
       <c r="L26" t="n">
-        <v>1365.729232573068</v>
+        <v>1533.134881593421</v>
       </c>
       <c r="M26" t="n">
-        <v>2040.597498774245</v>
+        <v>2208.003147794599</v>
       </c>
       <c r="N26" t="n">
-        <v>2730.999647454441</v>
+        <v>2898.405296474795</v>
       </c>
       <c r="O26" t="n">
-        <v>3369.591557705683</v>
+        <v>3536.997206726037</v>
       </c>
       <c r="P26" t="n">
-        <v>4058.512584029617</v>
+        <v>4268.704424782923</v>
       </c>
       <c r="Q26" t="n">
         <v>4603.912754524436</v>
@@ -6257,16 +6257,16 @@
         <v>4419.53279179948</v>
       </c>
       <c r="U26" t="n">
-        <v>4166.068015869759</v>
+        <v>4166.06801586976</v>
       </c>
       <c r="V26" t="n">
-        <v>3835.005128526188</v>
+        <v>3835.005128526189</v>
       </c>
       <c r="W26" t="n">
-        <v>3482.236473256074</v>
+        <v>3482.236473256075</v>
       </c>
       <c r="X26" t="n">
-        <v>3108.770714994994</v>
+        <v>3108.770714994995</v>
       </c>
       <c r="Y26" t="n">
         <v>2718.631383019183</v>
@@ -6297,25 +6297,25 @@
         <v>184.4063107457985</v>
       </c>
       <c r="H27" t="n">
-        <v>98.14821909584884</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I27" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J27" t="n">
-        <v>94.2698336239241</v>
+        <v>228.6358318675341</v>
       </c>
       <c r="K27" t="n">
-        <v>94.2698336239241</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L27" t="n">
-        <v>554.4778364191529</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M27" t="n">
-        <v>858.5774200521645</v>
+        <v>1553.049452712477</v>
       </c>
       <c r="N27" t="n">
-        <v>1444.110162614265</v>
+        <v>1957.538433753391</v>
       </c>
       <c r="O27" t="n">
         <v>1957.538433753391</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>787.1981487739956</v>
+        <v>370.6522039234844</v>
       </c>
       <c r="C28" t="n">
-        <v>618.2619658460887</v>
+        <v>370.6522039234844</v>
       </c>
       <c r="D28" t="n">
-        <v>618.2619658460887</v>
+        <v>370.6522039234844</v>
       </c>
       <c r="E28" t="n">
-        <v>470.3488722636956</v>
+        <v>370.6522039234844</v>
       </c>
       <c r="F28" t="n">
-        <v>323.4589247657852</v>
+        <v>370.6522039234844</v>
       </c>
       <c r="G28" t="n">
-        <v>323.4589247657852</v>
+        <v>203.3177562413702</v>
       </c>
       <c r="H28" t="n">
-        <v>180.5170505874352</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="I28" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J28" t="n">
-        <v>164.9192668969431</v>
+        <v>164.9192668969432</v>
       </c>
       <c r="K28" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L28" t="n">
         <v>781.0941016139911</v>
@@ -6400,10 +6400,10 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P28" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q28" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R28" t="n">
         <v>2239.725689507049</v>
@@ -6412,22 +6412,22 @@
         <v>2054.459819916155</v>
       </c>
       <c r="T28" t="n">
-        <v>2054.459819916155</v>
+        <v>1834.267229970121</v>
       </c>
       <c r="U28" t="n">
-        <v>1961.73040188863</v>
+        <v>1545.184457038119</v>
       </c>
       <c r="V28" t="n">
-        <v>1707.045913682744</v>
+        <v>1290.499968832232</v>
       </c>
       <c r="W28" t="n">
-        <v>1417.628743645783</v>
+        <v>1001.082798795272</v>
       </c>
       <c r="X28" t="n">
-        <v>1189.639192747765</v>
+        <v>773.0932478972543</v>
       </c>
       <c r="Y28" t="n">
-        <v>968.8466136042354</v>
+        <v>552.3006687537242</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2332.031542955059</v>
+        <v>2332.03154295506</v>
       </c>
       <c r="C29" t="n">
         <v>1963.069026014648</v>
       </c>
       <c r="D29" t="n">
-        <v>1604.803327407897</v>
+        <v>1604.803327407898</v>
       </c>
       <c r="E29" t="n">
         <v>1219.015074809653</v>
       </c>
       <c r="F29" t="n">
-        <v>808.0291700200456</v>
+        <v>808.029170020046</v>
       </c>
       <c r="G29" t="n">
-        <v>393.7779798205715</v>
+        <v>393.777979820572</v>
       </c>
       <c r="H29" t="n">
-        <v>104.6051079489055</v>
+        <v>104.6051079489054</v>
       </c>
       <c r="I29" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J29" t="n">
-        <v>518.8709278521246</v>
+        <v>518.8709278521247</v>
       </c>
       <c r="K29" t="n">
-        <v>955.0787474233961</v>
+        <v>955.0787474233963</v>
       </c>
       <c r="L29" t="n">
         <v>1533.134881593421</v>
@@ -6473,13 +6473,13 @@
         <v>2208.003147794599</v>
       </c>
       <c r="N29" t="n">
-        <v>2898.405296474794</v>
+        <v>2898.405296474795</v>
       </c>
       <c r="O29" t="n">
-        <v>3536.997206726036</v>
+        <v>3536.997206726037</v>
       </c>
       <c r="P29" t="n">
-        <v>4058.512584029617</v>
+        <v>4268.704424782923</v>
       </c>
       <c r="Q29" t="n">
         <v>4603.912754524436</v>
@@ -6506,7 +6506,7 @@
         <v>3108.770714994993</v>
       </c>
       <c r="Y29" t="n">
-        <v>2718.631383019181</v>
+        <v>2718.631383019182</v>
       </c>
     </row>
     <row r="30">
@@ -6534,7 +6534,7 @@
         <v>184.4063107457985</v>
       </c>
       <c r="H30" t="n">
-        <v>98.14821909584884</v>
+        <v>98.14821909584883</v>
       </c>
       <c r="I30" t="n">
         <v>94.2698336239241</v>
@@ -6543,19 +6543,19 @@
         <v>228.6358318675341</v>
       </c>
       <c r="K30" t="n">
-        <v>536.4435490921098</v>
+        <v>536.4435490921101</v>
       </c>
       <c r="L30" t="n">
-        <v>996.6515518873387</v>
+        <v>996.651551887339</v>
       </c>
       <c r="M30" t="n">
-        <v>1071.193433927681</v>
+        <v>1553.049452712477</v>
       </c>
       <c r="N30" t="n">
-        <v>1656.726176489782</v>
+        <v>2138.582195274578</v>
       </c>
       <c r="O30" t="n">
-        <v>2170.154447628908</v>
+        <v>2562.892833610734</v>
       </c>
       <c r="P30" t="n">
         <v>2562.892833610734</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>809.846194788142</v>
+        <v>573.4823384122952</v>
       </c>
       <c r="C31" t="n">
-        <v>640.9100118602352</v>
+        <v>404.5461554843884</v>
       </c>
       <c r="D31" t="n">
-        <v>490.7933724478995</v>
+        <v>404.5461554843884</v>
       </c>
       <c r="E31" t="n">
-        <v>490.7933724478995</v>
+        <v>404.5461554843884</v>
       </c>
       <c r="F31" t="n">
-        <v>490.7933724478995</v>
+        <v>404.5461554843884</v>
       </c>
       <c r="G31" t="n">
-        <v>323.4589247657852</v>
+        <v>237.2117078022741</v>
       </c>
       <c r="H31" t="n">
-        <v>180.5170505874352</v>
+        <v>94.2698336239241</v>
       </c>
       <c r="I31" t="n">
         <v>94.2698336239241</v>
       </c>
       <c r="J31" t="n">
-        <v>164.9192668969431</v>
+        <v>164.9192668969432</v>
       </c>
       <c r="K31" t="n">
-        <v>410.854825126435</v>
+        <v>410.8548251264351</v>
       </c>
       <c r="L31" t="n">
         <v>781.0941016139911</v>
@@ -6637,10 +6637,10 @@
         <v>1928.872235118791</v>
       </c>
       <c r="P31" t="n">
-        <v>2205.14805986648</v>
+        <v>2205.148059866481</v>
       </c>
       <c r="Q31" t="n">
-        <v>2312.992040268584</v>
+        <v>2312.992040268585</v>
       </c>
       <c r="R31" t="n">
         <v>2239.725689507049</v>
@@ -6649,22 +6649,22 @@
         <v>2054.459819916155</v>
       </c>
       <c r="T31" t="n">
-        <v>1834.267229970121</v>
+        <v>2037.097364458932</v>
       </c>
       <c r="U31" t="n">
-        <v>1545.184457038119</v>
+        <v>1748.01459152693</v>
       </c>
       <c r="V31" t="n">
-        <v>1545.184457038119</v>
+        <v>1493.330103321043</v>
       </c>
       <c r="W31" t="n">
-        <v>1255.767287001158</v>
+        <v>1203.912933284083</v>
       </c>
       <c r="X31" t="n">
-        <v>1212.287238761912</v>
+        <v>975.9233823860651</v>
       </c>
       <c r="Y31" t="n">
-        <v>991.4946596183818</v>
+        <v>755.130803242535</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2129.041253528321</v>
+        <v>2181.810142546893</v>
       </c>
       <c r="C32" t="n">
-        <v>1790.866169557649</v>
+        <v>1843.635058576221</v>
       </c>
       <c r="D32" t="n">
-        <v>1463.387903920638</v>
+        <v>1516.156792939209</v>
       </c>
       <c r="E32" t="n">
-        <v>1108.387084292133</v>
+        <v>1149.509791586853</v>
       </c>
       <c r="F32" t="n">
-        <v>728.1886124722644</v>
+        <v>738.5238867972457</v>
       </c>
       <c r="G32" t="n">
-        <v>344.7248552425297</v>
+        <v>355.0601295675111</v>
       </c>
       <c r="H32" t="n">
-        <v>86.33941634060244</v>
+        <v>96.67469066558378</v>
       </c>
       <c r="I32" t="n">
-        <v>86.33941634060244</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J32" t="n">
         <v>343.5348615484509</v>
@@ -6704,46 +6704,46 @@
         <v>779.7426811197224</v>
       </c>
       <c r="L32" t="n">
-        <v>1357.798815289747</v>
+        <v>1357.798815289748</v>
       </c>
       <c r="M32" t="n">
-        <v>2032.667081490925</v>
+        <v>2032.667081490926</v>
       </c>
       <c r="N32" t="n">
         <v>2723.069230171121</v>
       </c>
       <c r="O32" t="n">
-        <v>3361.661140422363</v>
+        <v>3361.661140422364</v>
       </c>
       <c r="P32" t="n">
-        <v>3872.183560616839</v>
+        <v>3872.18356061684</v>
       </c>
       <c r="Q32" t="n">
         <v>4207.391890358354</v>
       </c>
       <c r="R32" t="n">
-        <v>4316.970817030122</v>
+        <v>4316.970817030123</v>
       </c>
       <c r="S32" t="n">
-        <v>4256.182042763584</v>
+        <v>4256.182042763585</v>
       </c>
       <c r="T32" t="n">
-        <v>4084.586793572876</v>
+        <v>4084.586793572877</v>
       </c>
       <c r="U32" t="n">
         <v>3861.909450612894</v>
       </c>
       <c r="V32" t="n">
-        <v>3539.652540190231</v>
+        <v>3561.633996239063</v>
       </c>
       <c r="W32" t="n">
-        <v>3186.883884920117</v>
+        <v>3239.652773938688</v>
       </c>
       <c r="X32" t="n">
-        <v>2844.205559628776</v>
+        <v>2896.974448647348</v>
       </c>
       <c r="Y32" t="n">
-        <v>2484.853660622704</v>
+        <v>2537.622549641275</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>90.21780181252718</v>
       </c>
       <c r="I33" t="n">
-        <v>86.33941634060244</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J33" t="n">
-        <v>86.33941634060244</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="K33" t="n">
-        <v>86.33941634060244</v>
+        <v>394.1471335651783</v>
       </c>
       <c r="L33" t="n">
-        <v>546.5474191358312</v>
+        <v>854.3551363604072</v>
       </c>
       <c r="M33" t="n">
-        <v>1102.945319960969</v>
+        <v>854.3551363604072</v>
       </c>
       <c r="N33" t="n">
-        <v>1409.582001175144</v>
+        <v>1439.887878922508</v>
       </c>
       <c r="O33" t="n">
-        <v>1923.01027231427</v>
+        <v>1949.608016470069</v>
       </c>
       <c r="P33" t="n">
-        <v>2315.748658296096</v>
+        <v>2342.346402451896</v>
       </c>
       <c r="Q33" t="n">
-        <v>2528.364672171613</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="R33" t="n">
         <v>2554.962416327412</v>
@@ -6841,19 +6841,19 @@
         <v>623.7288313961844</v>
       </c>
       <c r="E34" t="n">
-        <v>506.6031707835308</v>
+        <v>506.6031707835307</v>
       </c>
       <c r="F34" t="n">
-        <v>390.5006562553598</v>
+        <v>390.5006562553597</v>
       </c>
       <c r="G34" t="n">
-        <v>253.9536415429849</v>
+        <v>253.9536415429848</v>
       </c>
       <c r="H34" t="n">
-        <v>141.7992003343742</v>
+        <v>141.7992003343741</v>
       </c>
       <c r="I34" t="n">
-        <v>86.33941634060244</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J34" t="n">
         <v>187.163612667263</v>
@@ -6865,7 +6865,7 @@
         <v>863.687973491594</v>
       </c>
       <c r="M34" t="n">
-        <v>1294.617265318779</v>
+        <v>1294.61726531878</v>
       </c>
       <c r="N34" t="n">
         <v>1721.452126603998</v>
@@ -6874,13 +6874,13 @@
         <v>2101.990396157318</v>
       </c>
       <c r="P34" t="n">
-        <v>2408.440983958649</v>
+        <v>2408.44098395865</v>
       </c>
       <c r="Q34" t="n">
-        <v>2546.459727414394</v>
+        <v>2546.459727414395</v>
       </c>
       <c r="R34" t="n">
-        <v>2503.980809622598</v>
+        <v>2503.980809622599</v>
       </c>
       <c r="S34" t="n">
         <v>2349.502373001444</v>
@@ -6911,31 +6911,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2129.041253528321</v>
+        <v>2181.810142546891</v>
       </c>
       <c r="C35" t="n">
-        <v>1790.866169557649</v>
+        <v>1843.635058576219</v>
       </c>
       <c r="D35" t="n">
-        <v>1463.387903920638</v>
+        <v>1516.156792939208</v>
       </c>
       <c r="E35" t="n">
-        <v>1108.387084292133</v>
+        <v>1139.174517261872</v>
       </c>
       <c r="F35" t="n">
-        <v>728.1886124722644</v>
+        <v>728.1886124722646</v>
       </c>
       <c r="G35" t="n">
-        <v>344.7248552425297</v>
+        <v>344.7248552425298</v>
       </c>
       <c r="H35" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060244</v>
       </c>
       <c r="I35" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060244</v>
       </c>
       <c r="J35" t="n">
-        <v>343.5348615484501</v>
+        <v>343.53486154845</v>
       </c>
       <c r="K35" t="n">
         <v>779.7426811197215</v>
@@ -6944,43 +6944,43 @@
         <v>1357.798815289746</v>
       </c>
       <c r="M35" t="n">
-        <v>2032.667081490923</v>
+        <v>2032.667081490924</v>
       </c>
       <c r="N35" t="n">
-        <v>2723.069230171119</v>
+        <v>2723.06923017112</v>
       </c>
       <c r="O35" t="n">
-        <v>3361.661140422361</v>
+        <v>3361.661140422363</v>
       </c>
       <c r="P35" t="n">
-        <v>3872.183560616838</v>
+        <v>3872.18356061684</v>
       </c>
       <c r="Q35" t="n">
-        <v>4207.391890358352</v>
+        <v>4207.391890358354</v>
       </c>
       <c r="R35" t="n">
-        <v>4316.97081703012</v>
+        <v>4316.970817030122</v>
       </c>
       <c r="S35" t="n">
-        <v>4256.182042763582</v>
+        <v>4256.182042763584</v>
       </c>
       <c r="T35" t="n">
-        <v>4084.586793572874</v>
+        <v>4084.586793572876</v>
       </c>
       <c r="U35" t="n">
-        <v>3861.909450612892</v>
+        <v>3861.909450612894</v>
       </c>
       <c r="V35" t="n">
-        <v>3530.846563269321</v>
+        <v>3561.633996239062</v>
       </c>
       <c r="W35" t="n">
-        <v>3208.865340968946</v>
+        <v>3239.652773938687</v>
       </c>
       <c r="X35" t="n">
-        <v>2866.187015677605</v>
+        <v>2896.974448647346</v>
       </c>
       <c r="Y35" t="n">
-        <v>2484.853660622704</v>
+        <v>2537.622549641274</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.559032735922</v>
+        <v>941.5590327359222</v>
       </c>
       <c r="C36" t="n">
-        <v>767.106003454795</v>
+        <v>767.1060034547952</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1715937935437</v>
+        <v>618.1715937935439</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9341387880883</v>
+        <v>458.9341387880884</v>
       </c>
       <c r="F36" t="n">
         <v>312.3995808149733</v>
@@ -7008,34 +7008,34 @@
         <v>176.4758934624768</v>
       </c>
       <c r="H36" t="n">
-        <v>90.21780181252714</v>
+        <v>90.21780181252717</v>
       </c>
       <c r="I36" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060244</v>
       </c>
       <c r="J36" t="n">
-        <v>86.3394163406024</v>
+        <v>131.5877817812429</v>
       </c>
       <c r="K36" t="n">
-        <v>86.3394163406024</v>
+        <v>439.3954990058188</v>
       </c>
       <c r="L36" t="n">
-        <v>546.5474191358312</v>
+        <v>899.6035018010477</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.945319960969</v>
+        <v>1456.001402626186</v>
       </c>
       <c r="N36" t="n">
-        <v>1409.582001175144</v>
+        <v>2041.534145188287</v>
       </c>
       <c r="O36" t="n">
-        <v>1923.01027231427</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="P36" t="n">
-        <v>2315.748658296096</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="Q36" t="n">
-        <v>2528.364672171613</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="R36" t="n">
         <v>2554.962416327412</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>881.2067877969484</v>
+        <v>881.2067877969478</v>
       </c>
       <c r="C37" t="n">
-        <v>743.0580378387808</v>
+        <v>743.0580378387801</v>
       </c>
       <c r="D37" t="n">
-        <v>623.7288313961844</v>
+        <v>623.7288313961838</v>
       </c>
       <c r="E37" t="n">
-        <v>506.6031707835307</v>
+        <v>506.60317078353</v>
       </c>
       <c r="F37" t="n">
-        <v>390.5006562553597</v>
+        <v>390.500656255359</v>
       </c>
       <c r="G37" t="n">
-        <v>253.9536415429848</v>
+        <v>253.9536415429849</v>
       </c>
       <c r="H37" t="n">
-        <v>141.7992003343741</v>
+        <v>141.7992003343742</v>
       </c>
       <c r="I37" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060244</v>
       </c>
       <c r="J37" t="n">
         <v>187.163612667263</v>
       </c>
       <c r="K37" t="n">
-        <v>463.2739339503962</v>
+        <v>463.2739339503964</v>
       </c>
       <c r="L37" t="n">
-        <v>863.6879734915938</v>
+        <v>863.687973491594</v>
       </c>
       <c r="M37" t="n">
         <v>1294.617265318779</v>
@@ -7120,25 +7120,25 @@
         <v>2503.980809622598</v>
       </c>
       <c r="S37" t="n">
-        <v>2349.502373001443</v>
+        <v>2349.502373001444</v>
       </c>
       <c r="T37" t="n">
         <v>2160.097216025149</v>
       </c>
       <c r="U37" t="n">
-        <v>1901.801876062887</v>
+        <v>1901.801876062886</v>
       </c>
       <c r="V37" t="n">
         <v>1677.904820826739</v>
       </c>
       <c r="W37" t="n">
-        <v>1419.275083759518</v>
+        <v>1419.275083759517</v>
       </c>
       <c r="X37" t="n">
-        <v>1222.07296583124</v>
+        <v>1222.072965831239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1032.067819657449</v>
+        <v>1032.067819657448</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2151.022709577151</v>
+        <v>2181.810142546893</v>
       </c>
       <c r="C38" t="n">
-        <v>1812.847625606478</v>
+        <v>1843.635058576221</v>
       </c>
       <c r="D38" t="n">
-        <v>1485.369359969467</v>
+        <v>1516.156792939209</v>
       </c>
       <c r="E38" t="n">
-        <v>1108.387084292133</v>
+        <v>1139.174517261872</v>
       </c>
       <c r="F38" t="n">
         <v>728.1886124722644</v>
@@ -7166,58 +7166,58 @@
         <v>344.7248552425297</v>
       </c>
       <c r="H38" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="I38" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J38" t="n">
-        <v>343.5348615484499</v>
+        <v>343.5348615484509</v>
       </c>
       <c r="K38" t="n">
-        <v>779.7426811197213</v>
+        <v>779.7426811197224</v>
       </c>
       <c r="L38" t="n">
-        <v>1357.798815289746</v>
+        <v>1357.798815289748</v>
       </c>
       <c r="M38" t="n">
-        <v>2032.667081490924</v>
+        <v>2032.667081490926</v>
       </c>
       <c r="N38" t="n">
-        <v>2723.06923017112</v>
+        <v>2723.069230171121</v>
       </c>
       <c r="O38" t="n">
-        <v>3361.661140422361</v>
+        <v>3361.661140422364</v>
       </c>
       <c r="P38" t="n">
-        <v>3872.183560616838</v>
+        <v>3872.18356061684</v>
       </c>
       <c r="Q38" t="n">
-        <v>4207.391890358352</v>
+        <v>4207.391890358354</v>
       </c>
       <c r="R38" t="n">
-        <v>4316.97081703012</v>
+        <v>4316.970817030123</v>
       </c>
       <c r="S38" t="n">
-        <v>4256.182042763582</v>
+        <v>4256.182042763585</v>
       </c>
       <c r="T38" t="n">
-        <v>4084.586793572874</v>
+        <v>4084.586793572877</v>
       </c>
       <c r="U38" t="n">
-        <v>3861.909450612892</v>
+        <v>3861.909450612894</v>
       </c>
       <c r="V38" t="n">
-        <v>3561.63399623906</v>
+        <v>3561.633996239063</v>
       </c>
       <c r="W38" t="n">
-        <v>3239.652773938686</v>
+        <v>3239.652773938688</v>
       </c>
       <c r="X38" t="n">
-        <v>2896.974448647345</v>
+        <v>2896.974448647348</v>
       </c>
       <c r="Y38" t="n">
-        <v>2537.622549641273</v>
+        <v>2537.622549641275</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.559032735922</v>
+        <v>941.5590327359222</v>
       </c>
       <c r="C39" t="n">
-        <v>767.106003454795</v>
+        <v>767.1060034547952</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1715937935437</v>
+        <v>618.1715937935439</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9341387880883</v>
+        <v>458.9341387880884</v>
       </c>
       <c r="F39" t="n">
         <v>312.3995808149733</v>
@@ -7245,31 +7245,31 @@
         <v>176.4758934624768</v>
       </c>
       <c r="H39" t="n">
-        <v>90.21780181252714</v>
+        <v>90.21780181252718</v>
       </c>
       <c r="I39" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J39" t="n">
-        <v>86.3394163406024</v>
+        <v>220.7054145842125</v>
       </c>
       <c r="K39" t="n">
-        <v>86.3394163406024</v>
+        <v>528.5131318087883</v>
       </c>
       <c r="L39" t="n">
-        <v>546.5474191358312</v>
+        <v>988.7211346040173</v>
       </c>
       <c r="M39" t="n">
-        <v>1102.945319960969</v>
+        <v>1545.119035429155</v>
       </c>
       <c r="N39" t="n">
-        <v>1688.47806252307</v>
+        <v>2130.651777991256</v>
       </c>
       <c r="O39" t="n">
-        <v>1949.608016470069</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="P39" t="n">
-        <v>2342.346402451896</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="Q39" t="n">
         <v>2554.962416327412</v>
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>881.206787796948</v>
+        <v>881.2067877969482</v>
       </c>
       <c r="C40" t="n">
-        <v>743.0580378387805</v>
+        <v>743.0580378387806</v>
       </c>
       <c r="D40" t="n">
-        <v>623.7288313961841</v>
+        <v>623.7288313961842</v>
       </c>
       <c r="E40" t="n">
-        <v>506.6031707835303</v>
+        <v>506.6031707835305</v>
       </c>
       <c r="F40" t="n">
         <v>390.5006562553594</v>
       </c>
       <c r="G40" t="n">
-        <v>253.9536415429845</v>
+        <v>253.9536415429849</v>
       </c>
       <c r="H40" t="n">
-        <v>141.7992003343741</v>
+        <v>141.7992003343742</v>
       </c>
       <c r="I40" t="n">
-        <v>86.3394163406024</v>
+        <v>86.33941634060245</v>
       </c>
       <c r="J40" t="n">
         <v>187.163612667263</v>
       </c>
       <c r="K40" t="n">
-        <v>463.2739339503962</v>
+        <v>463.2739339503964</v>
       </c>
       <c r="L40" t="n">
-        <v>863.6879734915938</v>
+        <v>863.6879734915941</v>
       </c>
       <c r="M40" t="n">
-        <v>1294.617265318779</v>
+        <v>1294.61726531878</v>
       </c>
       <c r="N40" t="n">
         <v>1721.452126603998</v>
@@ -7348,7 +7348,7 @@
         <v>2101.990396157318</v>
       </c>
       <c r="P40" t="n">
-        <v>2408.440983958649</v>
+        <v>2408.44098395865</v>
       </c>
       <c r="Q40" t="n">
         <v>2546.459727414394</v>
@@ -7357,25 +7357,25 @@
         <v>2503.980809622598</v>
       </c>
       <c r="S40" t="n">
-        <v>2349.502373001443</v>
+        <v>2349.502373001444</v>
       </c>
       <c r="T40" t="n">
         <v>2160.097216025149</v>
       </c>
       <c r="U40" t="n">
-        <v>1901.801876062886</v>
+        <v>1901.801876062887</v>
       </c>
       <c r="V40" t="n">
         <v>1677.904820826739</v>
       </c>
       <c r="W40" t="n">
-        <v>1419.275083759517</v>
+        <v>1419.275083759518</v>
       </c>
       <c r="X40" t="n">
-        <v>1222.072965831239</v>
+        <v>1222.07296583124</v>
       </c>
       <c r="Y40" t="n">
-        <v>1032.067819657448</v>
+        <v>1032.067819657449</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2129.041253528321</v>
+        <v>2181.810142546892</v>
       </c>
       <c r="C41" t="n">
-        <v>1790.866169557649</v>
+        <v>1821.653602527388</v>
       </c>
       <c r="D41" t="n">
         <v>1463.387903920638</v>
@@ -7409,25 +7409,25 @@
         <v>86.33941634060244</v>
       </c>
       <c r="J41" t="n">
-        <v>343.5348615484501</v>
+        <v>343.53486154845</v>
       </c>
       <c r="K41" t="n">
         <v>779.7426811197215</v>
       </c>
       <c r="L41" t="n">
-        <v>1357.798815289746</v>
+        <v>1357.798815289747</v>
       </c>
       <c r="M41" t="n">
-        <v>2032.667081490923</v>
+        <v>2032.667081490925</v>
       </c>
       <c r="N41" t="n">
-        <v>2723.069230171119</v>
+        <v>2723.069230171121</v>
       </c>
       <c r="O41" t="n">
-        <v>3361.661140422362</v>
+        <v>3361.661140422363</v>
       </c>
       <c r="P41" t="n">
-        <v>3872.183560616838</v>
+        <v>3872.18356061684</v>
       </c>
       <c r="Q41" t="n">
         <v>4207.391890358354</v>
@@ -7448,13 +7448,13 @@
         <v>3561.633996239062</v>
       </c>
       <c r="W41" t="n">
-        <v>3217.671317889856</v>
+        <v>3239.652773938687</v>
       </c>
       <c r="X41" t="n">
-        <v>2844.205559628776</v>
+        <v>2896.974448647347</v>
       </c>
       <c r="Y41" t="n">
-        <v>2484.853660622704</v>
+        <v>2537.622549641274</v>
       </c>
     </row>
     <row r="42">
@@ -7482,28 +7482,28 @@
         <v>176.4758934624768</v>
       </c>
       <c r="H42" t="n">
-        <v>90.21780181252718</v>
+        <v>90.21780181252717</v>
       </c>
       <c r="I42" t="n">
         <v>86.33941634060244</v>
       </c>
       <c r="J42" t="n">
-        <v>220.7054145842124</v>
+        <v>220.7054145842125</v>
       </c>
       <c r="K42" t="n">
-        <v>528.5131318087882</v>
+        <v>528.5131318087883</v>
       </c>
       <c r="L42" t="n">
-        <v>528.5131318087882</v>
+        <v>988.7211346040173</v>
       </c>
       <c r="M42" t="n">
-        <v>1084.911032633926</v>
+        <v>1545.119035429155</v>
       </c>
       <c r="N42" t="n">
-        <v>1648.79575920646</v>
+        <v>2130.651777991256</v>
       </c>
       <c r="O42" t="n">
-        <v>2162.224030345586</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="P42" t="n">
         <v>2554.962416327412</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>881.206787796948</v>
+        <v>881.2067877969487</v>
       </c>
       <c r="C43" t="n">
-        <v>743.0580378387804</v>
+        <v>743.0580378387812</v>
       </c>
       <c r="D43" t="n">
-        <v>623.728831396184</v>
+        <v>623.7288313961848</v>
       </c>
       <c r="E43" t="n">
-        <v>506.6031707835301</v>
+        <v>506.603170783531</v>
       </c>
       <c r="F43" t="n">
-        <v>390.500656255359</v>
+        <v>390.5006562553599</v>
       </c>
       <c r="G43" t="n">
-        <v>253.9536415429841</v>
+        <v>253.953641542985</v>
       </c>
       <c r="H43" t="n">
         <v>141.7992003343742</v>
@@ -7567,25 +7567,25 @@
         <v>86.33941634060244</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1636126672628</v>
+        <v>187.163612667263</v>
       </c>
       <c r="K43" t="n">
-        <v>463.2739339503962</v>
+        <v>463.2739339503964</v>
       </c>
       <c r="L43" t="n">
-        <v>863.6879734915938</v>
+        <v>863.687973491594</v>
       </c>
       <c r="M43" t="n">
         <v>1294.617265318779</v>
       </c>
       <c r="N43" t="n">
-        <v>1721.452126603997</v>
+        <v>1721.452126603998</v>
       </c>
       <c r="O43" t="n">
-        <v>2101.990396157317</v>
+        <v>2101.990396157318</v>
       </c>
       <c r="P43" t="n">
-        <v>2408.440983958648</v>
+        <v>2408.44098395865</v>
       </c>
       <c r="Q43" t="n">
         <v>2546.459727414394</v>
@@ -7594,25 +7594,25 @@
         <v>2503.980809622598</v>
       </c>
       <c r="S43" t="n">
-        <v>2349.502373001443</v>
+        <v>2349.502373001444</v>
       </c>
       <c r="T43" t="n">
         <v>2160.097216025149</v>
       </c>
       <c r="U43" t="n">
-        <v>1901.801876062886</v>
+        <v>1901.801876062887</v>
       </c>
       <c r="V43" t="n">
         <v>1677.904820826739</v>
       </c>
       <c r="W43" t="n">
-        <v>1419.275083759517</v>
+        <v>1419.275083759518</v>
       </c>
       <c r="X43" t="n">
-        <v>1222.072965831239</v>
+        <v>1222.07296583124</v>
       </c>
       <c r="Y43" t="n">
-        <v>1032.067819657448</v>
+        <v>1032.067819657449</v>
       </c>
     </row>
     <row r="44">
@@ -7625,13 +7625,13 @@
         <v>2181.810142546892</v>
       </c>
       <c r="C44" t="n">
-        <v>1843.63505857622</v>
+        <v>1812.847625606481</v>
       </c>
       <c r="D44" t="n">
-        <v>1494.175336890377</v>
+        <v>1463.387903920638</v>
       </c>
       <c r="E44" t="n">
-        <v>1139.174517261872</v>
+        <v>1108.387084292133</v>
       </c>
       <c r="F44" t="n">
         <v>728.1886124722644</v>
@@ -7646,16 +7646,16 @@
         <v>86.33941634060244</v>
       </c>
       <c r="J44" t="n">
-        <v>343.53486154845</v>
+        <v>343.5348615484501</v>
       </c>
       <c r="K44" t="n">
-        <v>779.7426811197214</v>
+        <v>779.7426811197224</v>
       </c>
       <c r="L44" t="n">
-        <v>1357.798815289746</v>
+        <v>1357.798815289747</v>
       </c>
       <c r="M44" t="n">
-        <v>2032.667081490926</v>
+        <v>2032.667081490925</v>
       </c>
       <c r="N44" t="n">
         <v>2723.069230171121</v>
@@ -7719,34 +7719,34 @@
         <v>176.4758934624768</v>
       </c>
       <c r="H45" t="n">
-        <v>90.21780181252718</v>
+        <v>90.21780181252717</v>
       </c>
       <c r="I45" t="n">
         <v>86.33941634060244</v>
       </c>
       <c r="J45" t="n">
-        <v>86.33941634060244</v>
+        <v>220.7054145842125</v>
       </c>
       <c r="K45" t="n">
-        <v>86.33941634060244</v>
+        <v>528.5131318087883</v>
       </c>
       <c r="L45" t="n">
-        <v>546.5474191358312</v>
+        <v>988.7211346040173</v>
       </c>
       <c r="M45" t="n">
-        <v>1102.945319960969</v>
+        <v>1545.119035429155</v>
       </c>
       <c r="N45" t="n">
-        <v>1409.582001175144</v>
+        <v>2130.651777991256</v>
       </c>
       <c r="O45" t="n">
-        <v>1923.01027231427</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="P45" t="n">
-        <v>2315.748658296096</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="Q45" t="n">
-        <v>2528.364672171613</v>
+        <v>2554.962416327412</v>
       </c>
       <c r="R45" t="n">
         <v>2554.962416327412</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>881.2067877969484</v>
+        <v>881.206787796948</v>
       </c>
       <c r="C46" t="n">
-        <v>743.0580378387808</v>
+        <v>743.0580378387804</v>
       </c>
       <c r="D46" t="n">
-        <v>623.7288313961844</v>
+        <v>623.728831396184</v>
       </c>
       <c r="E46" t="n">
-        <v>506.6031707835307</v>
+        <v>506.6031707835302</v>
       </c>
       <c r="F46" t="n">
-        <v>390.5006562553597</v>
+        <v>390.5006562553592</v>
       </c>
       <c r="G46" t="n">
-        <v>253.9536415429848</v>
+        <v>253.9536415429843</v>
       </c>
       <c r="H46" t="n">
         <v>141.7992003343742</v>
@@ -7804,16 +7804,16 @@
         <v>86.33941634060244</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1636126672628</v>
+        <v>187.163612667263</v>
       </c>
       <c r="K46" t="n">
-        <v>463.2739339503962</v>
+        <v>463.2739339503963</v>
       </c>
       <c r="L46" t="n">
-        <v>863.6879734915938</v>
+        <v>863.687973491594</v>
       </c>
       <c r="M46" t="n">
-        <v>1294.61726531878</v>
+        <v>1294.617265318779</v>
       </c>
       <c r="N46" t="n">
         <v>1721.452126603998</v>
@@ -7849,7 +7849,7 @@
         <v>1222.07296583124</v>
       </c>
       <c r="Y46" t="n">
-        <v>1032.067819657449</v>
+        <v>1032.067819657448</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>122.1609165114202</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>129.8481964236088</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,16 +8067,16 @@
         <v>392.8337743093848</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>197.5393732613981</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>186.5034330341818</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>119.7207117878867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>125.6774978810001</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>123.047446830095</v>
+        <v>399.2039605324505</v>
       </c>
       <c r="N6" t="n">
-        <v>270.0158396049241</v>
+        <v>387.9064735273547</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>211.9437496729917</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>130.3661252938572</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,10 +8693,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>180.200612251979</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>392.5156029118809</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8927,13 +8927,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>70.71689474040068</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>392.5156029118809</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9176,10 +9176,10 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>68.37019034071625</v>
       </c>
       <c r="P17" t="n">
-        <v>68.37019034071682</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>11.10399707990342</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9416,13 +9416,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>114.4841923789938</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,10 +9635,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>180.2006122519771</v>
+        <v>11.10399707990229</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9890,10 +9890,10 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>180.2006122519768</v>
+        <v>223.4189877398065</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>11.10399707990314</v>
+        <v>223.4189877398065</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -22544,31 +22544,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>91.44100766901636</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.6883361205952</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>172.4424533234163</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22598,19 +22598,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>29.09787827440371</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.4890667268024</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,34 +22702,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9494798159088</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>161.8582038473137</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.593073680744</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871617</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22750,13 +22750,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>175.4274210366964</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>223.2933741908973</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -22765,7 +22765,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>90.04563763226601</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465627</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>41.15195219561694</v>
+        <v>165.6611032052931</v>
       </c>
       <c r="H13" t="n">
-        <v>141.5124554365666</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>31.01119700489852</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,7 +23665,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>158.4291000728137</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S16" t="n">
-        <v>183.413210894985</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,10 +23713,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>45.75416705471073</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>141.5124554365665</v>
       </c>
       <c r="I19" t="n">
-        <v>85.38474479387597</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1919452026818</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>175.2483914470166</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,22 +24172,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>72.53368725392016</v>
+        <v>72.53368725392014</v>
       </c>
       <c r="S22" t="n">
         <v>183.413210894985</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.9906640465736</v>
       </c>
       <c r="U22" t="n">
-        <v>142.2627102764566</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>85.47267833140458</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>122.848349425536</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>141.5124554365666</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>8.164439783154933</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.6611032052931</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>33.5550120452949</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,10 +24652,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.9906640465736</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>194.3898213554329</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.38474479387595</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,19 +24889,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>200.8018331439229</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>182.6644076321833</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1224265.709987481</v>
+        <v>1224265.709987482</v>
       </c>
     </row>
     <row r="3">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>87727.59483880393</v>
+        <v>87727.59483880397</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26320,16 +26320,16 @@
         <v>102630.2212330354</v>
       </c>
       <c r="E2" t="n">
-        <v>100450.2500481589</v>
+        <v>100450.2500481588</v>
       </c>
       <c r="F2" t="n">
-        <v>100450.2500481589</v>
+        <v>100450.2500481588</v>
       </c>
       <c r="G2" t="n">
         <v>100450.2500481589</v>
       </c>
       <c r="H2" t="n">
-        <v>100450.2500481588</v>
+        <v>100450.2500481589</v>
       </c>
       <c r="I2" t="n">
         <v>100450.2500481588</v>
@@ -26341,7 +26341,7 @@
         <v>100450.2500481589</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330353</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
@@ -26372,7 +26372,7 @@
         <v>417183.6221536879</v>
       </c>
       <c r="E3" t="n">
-        <v>885043.0273730636</v>
+        <v>885043.0273730637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
-        <v>3323.773824475267</v>
+        <v>3323.773824475296</v>
       </c>
       <c r="L3" t="n">
-        <v>100057.9933431494</v>
+        <v>100057.9933431495</v>
       </c>
       <c r="M3" t="n">
-        <v>125620.1597106785</v>
+        <v>125620.1597106784</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>286706.0751158015</v>
+        <v>286706.0751158017</v>
       </c>
       <c r="C4" t="n">
         <v>350497.5914804416</v>
@@ -26424,40 +26424,40 @@
         <v>227638.2345336369</v>
       </c>
       <c r="E4" t="n">
-        <v>14706.87743174482</v>
+        <v>14706.87743174476</v>
       </c>
       <c r="F4" t="n">
-        <v>14706.87743174481</v>
+        <v>14706.87743174476</v>
       </c>
       <c r="G4" t="n">
-        <v>14706.87743174477</v>
+        <v>14706.87743174476</v>
       </c>
       <c r="H4" t="n">
-        <v>14706.87743174478</v>
+        <v>14706.87743174476</v>
       </c>
       <c r="I4" t="n">
-        <v>14706.87743174478</v>
+        <v>14706.87743174476</v>
       </c>
       <c r="J4" t="n">
-        <v>14706.87743174477</v>
+        <v>14706.87743174475</v>
       </c>
       <c r="K4" t="n">
-        <v>14706.87743174477</v>
+        <v>14706.87743174475</v>
       </c>
       <c r="L4" t="n">
-        <v>34356.54858411948</v>
+        <v>34356.54858411942</v>
       </c>
       <c r="M4" t="n">
-        <v>34356.54858411957</v>
+        <v>34356.54858411949</v>
       </c>
       <c r="N4" t="n">
-        <v>34356.54858411959</v>
+        <v>34356.54858411942</v>
       </c>
       <c r="O4" t="n">
         <v>34356.54858411947</v>
       </c>
       <c r="P4" t="n">
-        <v>34356.5485841195</v>
+        <v>34356.54858411945</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>99811.15817672521</v>
+        <v>99811.15817672518</v>
       </c>
       <c r="F5" t="n">
-        <v>99811.15817672521</v>
+        <v>99811.15817672518</v>
       </c>
       <c r="G5" t="n">
         <v>99811.15817672518</v>
@@ -26497,13 +26497,13 @@
         <v>99811.15817672518</v>
       </c>
       <c r="L5" t="n">
+        <v>96346.42705671042</v>
+      </c>
+      <c r="M5" t="n">
         <v>96346.42705671041</v>
       </c>
-      <c r="M5" t="n">
-        <v>96346.42705671038</v>
-      </c>
       <c r="N5" t="n">
-        <v>96346.42705671038</v>
+        <v>96346.42705671042</v>
       </c>
       <c r="O5" t="n">
         <v>96346.42705671041</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-359507.3425587803</v>
+        <v>-359805.3950866651</v>
       </c>
       <c r="C6" t="n">
         <v>-314155.4373485758</v>
@@ -26528,40 +26528,40 @@
         <v>-625050.7135176988</v>
       </c>
       <c r="E6" t="n">
-        <v>-899110.8129333747</v>
+        <v>-899154.4123570723</v>
       </c>
       <c r="F6" t="n">
-        <v>-14067.78556031112</v>
+        <v>-14111.38498400864</v>
       </c>
       <c r="G6" t="n">
-        <v>-14067.78556031095</v>
+        <v>-14111.38498400861</v>
       </c>
       <c r="H6" t="n">
-        <v>-14067.78556031112</v>
+        <v>-14111.38498400861</v>
       </c>
       <c r="I6" t="n">
-        <v>-14067.78556031114</v>
+        <v>-14111.38498400866</v>
       </c>
       <c r="J6" t="n">
-        <v>-82943.48429156093</v>
+        <v>-82987.08371525841</v>
       </c>
       <c r="K6" t="n">
-        <v>-17391.55938478636</v>
+        <v>-17435.15880848388</v>
       </c>
       <c r="L6" t="n">
-        <v>-128130.747750944</v>
+        <v>-128130.7477509439</v>
       </c>
       <c r="M6" t="n">
-        <v>-153692.9141184731</v>
+        <v>-153692.9141184729</v>
       </c>
       <c r="N6" t="n">
-        <v>-28072.75440779462</v>
+        <v>-28072.75440779446</v>
       </c>
       <c r="O6" t="n">
         <v>-28072.75440779451</v>
       </c>
       <c r="P6" t="n">
-        <v>-28072.75440779455</v>
+        <v>-28072.75440779449</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>30.47955864004195</v>
       </c>
       <c r="M2" t="n">
+        <v>30.47955864004191</v>
+      </c>
+      <c r="N2" t="n">
         <v>30.47955864004195</v>
       </c>
-      <c r="N2" t="n">
-        <v>30.47955864004197</v>
-      </c>
       <c r="O2" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="P2" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
     </row>
     <row r="3">
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="F3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="G3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="H3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="I3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="J3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="K3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="L3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="M3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="N3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="O3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
       <c r="P3" t="n">
-        <v>1292.022230391874</v>
+        <v>1292.022230391875</v>
       </c>
     </row>
     <row r="4">
@@ -26796,10 +26796,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1178.372920299052</v>
+        <v>1178.372920299051</v>
       </c>
       <c r="F4" t="n">
-        <v>1178.372920299052</v>
+        <v>1178.372920299051</v>
       </c>
       <c r="G4" t="n">
         <v>1178.372920299051</v>
@@ -26817,13 +26817,13 @@
         <v>1178.372920299051</v>
       </c>
       <c r="L4" t="n">
-        <v>1079.24270425753</v>
+        <v>1079.242704257531</v>
       </c>
       <c r="M4" t="n">
         <v>1079.24270425753</v>
       </c>
       <c r="N4" t="n">
-        <v>1079.24270425753</v>
+        <v>1079.242704257531</v>
       </c>
       <c r="O4" t="n">
         <v>1079.24270425753</v>
@@ -26966,7 +26966,7 @@
         <v>342.7224034979613</v>
       </c>
       <c r="E3" t="n">
-        <v>914.2785661747878</v>
+        <v>914.278566174788</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>398.1307590522001</v>
       </c>
       <c r="E4" t="n">
-        <v>504.0856475444961</v>
+        <v>504.0856475444956</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27036,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
-        <v>12.91447975068877</v>
+        <v>12.91447975068888</v>
       </c>
       <c r="L4" t="n">
-        <v>299.0005430106794</v>
+        <v>299.0005430106796</v>
       </c>
       <c r="M4" t="n">
-        <v>504.0856475444956</v>
+        <v>504.0856475444954</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>398.1307590522001</v>
       </c>
       <c r="M4" t="n">
-        <v>504.0856475444961</v>
+        <v>504.0856475444956</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,19 +27424,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>167.3165105611419</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>58.65585098033546</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>100.3846213996543</v>
       </c>
       <c r="I3" t="n">
         <v>87.69233988828964</v>
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703757</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
@@ -27524,7 +27524,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27534,34 +27534,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>39.02114881311979</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J4" t="n">
         <v>90.42516245839145</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>82.6870224659892</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>65.87458628206232</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>106.5773279611251</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>139.005434824964</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>61.87643319194535</v>
+        <v>338.0329468943008</v>
       </c>
       <c r="I5" t="n">
         <v>205.0481221176458</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>73.08445501505753</v>
+        <v>128.0403057174094</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>93.57458697611355</v>
       </c>
       <c r="Y5" t="n">
-        <v>149.8753271287304</v>
+        <v>110.0814249536981</v>
       </c>
     </row>
     <row r="6">
@@ -27695,16 +27695,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>163.4847355532086</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>137.2681884137393</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>95.48084390037957</v>
       </c>
       <c r="S6" t="n">
         <v>170.2839726213331</v>
@@ -27752,7 +27752,7 @@
         <v>225.9364262421938</v>
       </c>
       <c r="V6" t="n">
-        <v>173.0886626459907</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>4.700786234059393</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>43.45345940421689</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,10 +27865,10 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>90.78842657655917</v>
+        <v>1.091546237960586</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>100.3446359800559</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>38.2851774626476</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28254,7 +28254,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -29755,10 +29755,10 @@
         <v>30.47955864004195</v>
       </c>
       <c r="E32" t="n">
-        <v>30.47955864004195</v>
+        <v>18.94983873342909</v>
       </c>
       <c r="F32" t="n">
-        <v>30.47955864004195</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>30.47955864004195</v>
@@ -29767,7 +29767,7 @@
         <v>30.47955864004195</v>
       </c>
       <c r="I32" t="n">
-        <v>10.23192158173154</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29806,10 +29806,10 @@
         <v>30.47955864004195</v>
       </c>
       <c r="V32" t="n">
-        <v>8.717917151698828</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="X32" t="n">
         <v>30.47955864004195</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="C35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="D35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="E35" t="n">
-        <v>30.47955864004195</v>
+        <v>8.717917151699623</v>
       </c>
       <c r="F35" t="n">
-        <v>30.47955864004195</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="H35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="I35" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="T35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="U35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="W35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="X35" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.71791715170076</v>
+        <v>30.47955864004191</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="C37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="D37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="E37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="F37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="G37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="H37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="I37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="J37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="K37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="L37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="M37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="N37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="O37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="P37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="Q37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="R37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="S37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="T37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="U37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="V37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="W37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="X37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
       <c r="Y37" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004191</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="C38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="D38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="E38" t="n">
-        <v>8.717917151700703</v>
+        <v>8.717917151697577</v>
       </c>
       <c r="F38" t="n">
-        <v>30.47955864004197</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="H38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="I38" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="T38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="U38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="V38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="W38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="X38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Y38" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="C40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="D40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="E40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="F40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="G40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="H40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="I40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="J40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="K40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="L40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="M40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="N40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="O40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="P40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Q40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="R40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="S40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="T40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="U40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="V40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="W40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="X40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Y40" t="n">
-        <v>30.47955864004197</v>
+        <v>30.47955864004195</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="C41" t="n">
-        <v>30.47955864004193</v>
+        <v>8.717917151698543</v>
       </c>
       <c r="D41" t="n">
-        <v>30.47955864004193</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="F41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="G41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="H41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="I41" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="T41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="U41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="V41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="W41" t="n">
-        <v>8.717917151698828</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Y41" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="C43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="D43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="E43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="F43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="G43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="H43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="I43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="J43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="K43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="L43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="M43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="N43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="O43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="P43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="R43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="S43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="T43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="U43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="V43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="W43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="X43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
       <c r="Y43" t="n">
-        <v>30.47955864004193</v>
+        <v>30.47955864004195</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="C44" t="n">
-        <v>30.47955864004195</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>8.717917151698543</v>
       </c>
       <c r="E44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="G44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="H44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="I44" t="n">
-        <v>10.23192158173154</v>
+        <v>10.23192158173151</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="T44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="U44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="V44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="W44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="X44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="Y44" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="C46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="D46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="E46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="F46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="G46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="H46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="I46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="J46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="K46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="L46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="M46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="N46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="O46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="P46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="Q46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="R46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="S46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="T46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="U46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="V46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="W46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="X46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
       <c r="Y46" t="n">
-        <v>30.47955864004195</v>
+        <v>30.47955864004192</v>
       </c>
     </row>
   </sheetData>
@@ -31039,16 +31039,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367561</v>
+        <v>0.09251611130367558</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887681</v>
+        <v>0.9474806248887679</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760345</v>
+        <v>7.852189301760344</v>
       </c>
       <c r="K2" t="n">
         <v>11.76839629324494</v>
@@ -31069,19 +31069,19 @@
         <v>13.30393245060769</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544806</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679518</v>
+        <v>5.811515176679516</v>
       </c>
       <c r="S2" t="n">
-        <v>2.10821088633251</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T2" t="n">
         <v>0.4049892772318401</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294047</v>
+        <v>0.007401288904294046</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498081</v>
+        <v>0.0495004835149808</v>
       </c>
       <c r="H3" t="n">
         <v>0.4780704592104726</v>
@@ -31130,7 +31130,7 @@
         <v>4.676710155246499</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750213</v>
+        <v>7.993242550750212</v>
       </c>
       <c r="L3" t="n">
         <v>10.74790103688213</v>
@@ -31139,28 +31139,28 @@
         <v>12.54229356430018</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418793</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O3" t="n">
         <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522959</v>
+        <v>9.452421277522957</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210533</v>
+        <v>6.318693299210532</v>
       </c>
       <c r="R3" t="n">
         <v>3.073372125605564</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523842</v>
+        <v>0.9194497705523841</v>
       </c>
       <c r="T3" t="n">
         <v>0.1995216857467866</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564529</v>
+        <v>0.003256610757564528</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,10 +31197,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994796</v>
+        <v>0.04149954254994795</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259012</v>
+        <v>0.3689686601259011</v>
       </c>
       <c r="I4" t="n">
         <v>1.248004425047526</v>
@@ -31209,37 +31209,37 @@
         <v>2.93401765828132</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82149230716668</v>
+        <v>4.821492307166679</v>
       </c>
       <c r="L4" t="n">
-        <v>6.169850171471355</v>
+        <v>6.169850171471354</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988659</v>
+        <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
         <v>6.350561815847949</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150828</v>
+        <v>5.865771705150827</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131886</v>
+        <v>5.019181037131885</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705188</v>
+        <v>3.475020785705187</v>
       </c>
       <c r="R4" t="n">
         <v>1.865970340473114</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750019</v>
+        <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588685</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815346</v>
+        <v>0.002263611411815345</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H11" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I11" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J11" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K11" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L11" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M11" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N11" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O11" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P11" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q11" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R11" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S11" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T11" t="n">
         <v>22.73699422528816</v>
@@ -31832,40 +31832,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H12" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I12" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J12" t="n">
         <v>262.5608572157677</v>
       </c>
       <c r="K12" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L12" t="n">
-        <v>393.6720536366857</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M12" t="n">
-        <v>704.1521155635714</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>494.8754314627791</v>
       </c>
       <c r="P12" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q12" t="n">
-        <v>354.7454244653313</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R12" t="n">
-        <v>172.5459122021451</v>
+        <v>172.5459122021452</v>
       </c>
       <c r="S12" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T12" t="n">
         <v>11.20158895971823</v>
@@ -31914,7 +31914,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I13" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J13" t="n">
         <v>164.7222440288132</v>
@@ -31923,19 +31923,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L13" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M13" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N13" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O13" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P13" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q13" t="n">
         <v>195.0953567891731</v>
@@ -31944,10 +31944,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S13" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T13" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U13" t="n">
         <v>0.127084153809037</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H14" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I14" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J14" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K14" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L14" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M14" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N14" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O14" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P14" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q14" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R14" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S14" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T14" t="n">
         <v>22.73699422528816</v>
@@ -32069,40 +32069,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H15" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I15" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J15" t="n">
         <v>262.5608572157677</v>
       </c>
       <c r="K15" t="n">
-        <v>265.8858386747526</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L15" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M15" t="n">
-        <v>704.1521155635714</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>521.7418397009603</v>
       </c>
       <c r="P15" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q15" t="n">
-        <v>354.7454244653313</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T15" t="n">
         <v>11.20158895971823</v>
@@ -32151,7 +32151,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I16" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J16" t="n">
         <v>164.7222440288132</v>
@@ -32160,19 +32160,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L16" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M16" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N16" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O16" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P16" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q16" t="n">
         <v>195.0953567891731</v>
@@ -32181,10 +32181,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S16" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T16" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U16" t="n">
         <v>0.127084153809037</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H17" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I17" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J17" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K17" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L17" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M17" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N17" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O17" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P17" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q17" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R17" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S17" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T17" t="n">
         <v>22.73699422528816</v>
@@ -32306,40 +32306,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H18" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I18" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J18" t="n">
         <v>262.5608572157677</v>
       </c>
       <c r="K18" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L18" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>494.4132209403531</v>
       </c>
       <c r="N18" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O18" t="n">
-        <v>661.2106597364907</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q18" t="n">
-        <v>188.4101961916206</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R18" t="n">
-        <v>172.5459122021451</v>
+        <v>172.5459122021452</v>
       </c>
       <c r="S18" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T18" t="n">
         <v>11.20158895971823</v>
@@ -32388,7 +32388,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I19" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J19" t="n">
         <v>164.7222440288132</v>
@@ -32397,19 +32397,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L19" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M19" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N19" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O19" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P19" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q19" t="n">
         <v>195.0953567891731</v>
@@ -32418,10 +32418,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S19" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T19" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U19" t="n">
         <v>0.127084153809037</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H20" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I20" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J20" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K20" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L20" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M20" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N20" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O20" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P20" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q20" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R20" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S20" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T20" t="n">
         <v>22.73699422528816</v>
@@ -32543,40 +32543,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H21" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I21" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5608572157677</v>
       </c>
       <c r="K21" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L21" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M21" t="n">
-        <v>704.1521155635714</v>
+        <v>521.2796291785343</v>
       </c>
       <c r="N21" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q21" t="n">
-        <v>307.5961686293959</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T21" t="n">
         <v>11.20158895971823</v>
@@ -32625,7 +32625,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I22" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J22" t="n">
         <v>164.7222440288132</v>
@@ -32634,19 +32634,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L22" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M22" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N22" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O22" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P22" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q22" t="n">
         <v>195.0953567891731</v>
@@ -32655,10 +32655,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S22" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T22" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U22" t="n">
         <v>0.127084153809037</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H23" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I23" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J23" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K23" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L23" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M23" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N23" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O23" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P23" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q23" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R23" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S23" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T23" t="n">
         <v>22.73699422528816</v>
@@ -32780,40 +32780,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H24" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I24" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5608572157677</v>
       </c>
       <c r="K24" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L24" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M24" t="n">
-        <v>704.1521155635714</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>157.0252556645445</v>
+        <v>556.4536985188147</v>
       </c>
       <c r="O24" t="n">
-        <v>661.2106597364907</v>
+        <v>661.2106597364908</v>
       </c>
       <c r="P24" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q24" t="n">
-        <v>354.7454244653313</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>172.5459122021452</v>
       </c>
       <c r="S24" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T24" t="n">
         <v>11.20158895971823</v>
@@ -32862,7 +32862,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I25" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J25" t="n">
         <v>164.7222440288132</v>
@@ -32871,19 +32871,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L25" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M25" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N25" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O25" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P25" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q25" t="n">
         <v>195.0953567891731</v>
@@ -32892,10 +32892,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S25" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T25" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U25" t="n">
         <v>0.127084153809037</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H26" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I26" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J26" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K26" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L26" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M26" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N26" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O26" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P26" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q26" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R26" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S26" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T26" t="n">
         <v>22.73699422528816</v>
@@ -33017,40 +33017,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H27" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I27" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5608572157677</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L27" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M27" t="n">
-        <v>449.3053305210199</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N27" t="n">
-        <v>722.7889267925261</v>
+        <v>539.9164404074887</v>
       </c>
       <c r="O27" t="n">
-        <v>661.2106597364907</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q27" t="n">
-        <v>354.7454244653313</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T27" t="n">
         <v>11.20158895971823</v>
@@ -33099,7 +33099,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I28" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J28" t="n">
         <v>164.7222440288132</v>
@@ -33108,19 +33108,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L28" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M28" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N28" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O28" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P28" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q28" t="n">
         <v>195.0953567891731</v>
@@ -33129,10 +33129,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S28" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T28" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U28" t="n">
         <v>0.127084153809037</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H29" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I29" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J29" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K29" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L29" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M29" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N29" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O29" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P29" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q29" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R29" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S29" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T29" t="n">
         <v>22.73699422528816</v>
@@ -33254,31 +33254,31 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H30" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I30" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J30" t="n">
         <v>262.5608572157677</v>
       </c>
       <c r="K30" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L30" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M30" t="n">
-        <v>217.4288642657988</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N30" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O30" t="n">
-        <v>661.2106597364907</v>
+        <v>571.1928488244</v>
       </c>
       <c r="P30" t="n">
-        <v>530.6798478000136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,7 +33287,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T30" t="n">
         <v>11.20158895971823</v>
@@ -33336,7 +33336,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I31" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J31" t="n">
         <v>164.7222440288132</v>
@@ -33345,19 +33345,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L31" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M31" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N31" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O31" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P31" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q31" t="n">
         <v>195.0953567891731</v>
@@ -33366,10 +33366,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S31" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T31" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U31" t="n">
         <v>0.127084153809037</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H32" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I32" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J32" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K32" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L32" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M32" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N32" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O32" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P32" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q32" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R32" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S32" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T32" t="n">
         <v>22.73699422528816</v>
@@ -33491,40 +33491,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H33" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I33" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L33" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M33" t="n">
-        <v>704.1521155635714</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>441.0757335117934</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O33" t="n">
-        <v>661.2106597364907</v>
+        <v>657.4650702500614</v>
       </c>
       <c r="P33" t="n">
-        <v>530.6798478000136</v>
+        <v>530.6798478000137</v>
       </c>
       <c r="Q33" t="n">
-        <v>354.7454244653313</v>
+        <v>354.7454244653314</v>
       </c>
       <c r="R33" t="n">
-        <v>172.5459122021451</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T33" t="n">
         <v>11.20158895971823</v>
@@ -33573,7 +33573,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I34" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J34" t="n">
         <v>164.7222440288132</v>
@@ -33582,19 +33582,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L34" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M34" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N34" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O34" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P34" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q34" t="n">
         <v>195.0953567891731</v>
@@ -33603,10 +33603,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S34" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T34" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U34" t="n">
         <v>0.127084153809037</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H35" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I35" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J35" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K35" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L35" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M35" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N35" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O35" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P35" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q35" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R35" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S35" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T35" t="n">
         <v>22.73699422528816</v>
@@ -33728,40 +33728,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H36" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I36" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>172.5430463036773</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L36" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M36" t="n">
-        <v>704.1521155635714</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N36" t="n">
-        <v>441.0757335117934</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O36" t="n">
-        <v>661.2106597364907</v>
+        <v>661.2106597364908</v>
       </c>
       <c r="P36" t="n">
-        <v>530.6798478000136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>354.7454244653313</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>172.5459122021451</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T36" t="n">
         <v>11.20158895971823</v>
@@ -33810,7 +33810,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I37" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J37" t="n">
         <v>164.7222440288132</v>
@@ -33819,19 +33819,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L37" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M37" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N37" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O37" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P37" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q37" t="n">
         <v>195.0953567891731</v>
@@ -33840,10 +33840,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S37" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T37" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U37" t="n">
         <v>0.127084153809037</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H38" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I38" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J38" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K38" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L38" t="n">
         <v>819.6614999902142</v>
       </c>
       <c r="M38" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N38" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O38" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P38" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q38" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R38" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S38" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T38" t="n">
         <v>22.73699422528816</v>
@@ -33965,40 +33965,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H39" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I39" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5608572157677</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L39" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M39" t="n">
-        <v>704.1521155635714</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N39" t="n">
-        <v>722.7889267925261</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O39" t="n">
-        <v>406.363874693939</v>
+        <v>571.1928488244</v>
       </c>
       <c r="P39" t="n">
-        <v>530.6798478000136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>354.7454244653313</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T39" t="n">
         <v>11.20158895971823</v>
@@ -34047,7 +34047,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I40" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J40" t="n">
         <v>164.7222440288132</v>
@@ -34056,19 +34056,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L40" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M40" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N40" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O40" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P40" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q40" t="n">
         <v>195.0953567891731</v>
@@ -34077,10 +34077,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S40" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T40" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U40" t="n">
         <v>0.127084153809037</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H41" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I41" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J41" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K41" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078811</v>
       </c>
       <c r="L41" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M41" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N41" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O41" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P41" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q41" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R41" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S41" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T41" t="n">
         <v>22.73699422528816</v>
@@ -34202,31 +34202,31 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H42" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I42" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J42" t="n">
         <v>262.5608572157677</v>
       </c>
       <c r="K42" t="n">
-        <v>448.7583250597891</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M42" t="n">
-        <v>704.1521155635714</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N42" t="n">
-        <v>700.9222439747822</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O42" t="n">
-        <v>661.2106597364907</v>
+        <v>571.1928488244</v>
       </c>
       <c r="P42" t="n">
-        <v>530.6798478000136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,7 +34235,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T42" t="n">
         <v>11.20158895971823</v>
@@ -34284,7 +34284,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I43" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J43" t="n">
         <v>164.7222440288132</v>
@@ -34293,19 +34293,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L43" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M43" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N43" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O43" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P43" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q43" t="n">
         <v>195.0953567891731</v>
@@ -34314,10 +34314,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S43" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T43" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U43" t="n">
         <v>0.127084153809037</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.194059217655773</v>
+        <v>5.194059217655774</v>
       </c>
       <c r="H44" t="n">
-        <v>53.1936589628172</v>
+        <v>53.19365896281721</v>
       </c>
       <c r="I44" t="n">
         <v>200.2439679886744</v>
       </c>
       <c r="J44" t="n">
-        <v>440.839283524512</v>
+        <v>440.8392835245122</v>
       </c>
       <c r="K44" t="n">
-        <v>660.703810207881</v>
+        <v>660.7038102078819</v>
       </c>
       <c r="L44" t="n">
-        <v>819.6614999902141</v>
+        <v>819.6614999902142</v>
       </c>
       <c r="M44" t="n">
-        <v>912.0313506021998</v>
+        <v>912.0313506022001</v>
       </c>
       <c r="N44" t="n">
-        <v>926.7889713543644</v>
+        <v>926.7889713543645</v>
       </c>
       <c r="O44" t="n">
-        <v>875.1405450087998</v>
+        <v>875.1405450087999</v>
       </c>
       <c r="P44" t="n">
-        <v>746.9122080729228</v>
+        <v>746.9122080729229</v>
       </c>
       <c r="Q44" t="n">
         <v>560.8999623406253</v>
       </c>
       <c r="R44" t="n">
-        <v>326.2713223310697</v>
+        <v>326.2713223310698</v>
       </c>
       <c r="S44" t="n">
-        <v>118.359624422331</v>
+        <v>118.3596244223311</v>
       </c>
       <c r="T44" t="n">
         <v>22.73699422528816</v>
@@ -34439,40 +34439,40 @@
         <v>2.779066684239127</v>
       </c>
       <c r="H45" t="n">
-        <v>26.8399335030463</v>
+        <v>26.83993350304631</v>
       </c>
       <c r="I45" t="n">
-        <v>95.6827783827945</v>
+        <v>95.68277838279451</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>262.5608572157677</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>448.7583250597892</v>
       </c>
       <c r="L45" t="n">
-        <v>603.4109482599033</v>
+        <v>603.4109482599034</v>
       </c>
       <c r="M45" t="n">
-        <v>704.1521155635714</v>
+        <v>704.1521155635717</v>
       </c>
       <c r="N45" t="n">
-        <v>441.0757335117934</v>
+        <v>722.7889267925262</v>
       </c>
       <c r="O45" t="n">
-        <v>661.2106597364907</v>
+        <v>571.1928488244</v>
       </c>
       <c r="P45" t="n">
-        <v>530.6798478000136</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>354.7454244653313</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>172.5459122021451</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>51.61994477084514</v>
+        <v>51.61994477084515</v>
       </c>
       <c r="T45" t="n">
         <v>11.20158895971823</v>
@@ -34521,7 +34521,7 @@
         <v>20.71471707087302</v>
       </c>
       <c r="I46" t="n">
-        <v>70.06573013338232</v>
+        <v>70.06573013338233</v>
       </c>
       <c r="J46" t="n">
         <v>164.7222440288132</v>
@@ -34530,19 +34530,19 @@
         <v>270.6892476132484</v>
       </c>
       <c r="L46" t="n">
-        <v>346.3890418988314</v>
+        <v>346.3890418988315</v>
       </c>
       <c r="M46" t="n">
-        <v>365.2186773548703</v>
+        <v>365.2186773548704</v>
       </c>
       <c r="N46" t="n">
-        <v>356.534593511253</v>
+        <v>356.5345935112531</v>
       </c>
       <c r="O46" t="n">
-        <v>329.3174039038175</v>
+        <v>329.3174039038176</v>
       </c>
       <c r="P46" t="n">
-        <v>281.7879303792375</v>
+        <v>281.7879303792376</v>
       </c>
       <c r="Q46" t="n">
         <v>195.0953567891731</v>
@@ -34551,10 +34551,10 @@
         <v>104.7597041232493</v>
       </c>
       <c r="S46" t="n">
-        <v>40.60338714198725</v>
+        <v>40.60338714198726</v>
       </c>
       <c r="T46" t="n">
-        <v>9.954925381707882</v>
+        <v>9.954925381707884</v>
       </c>
       <c r="U46" t="n">
         <v>0.127084153809037</v>
@@ -34778,7 +34778,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>134.6170405889698</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>243.0338665604671</v>
@@ -34787,16 +34787,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>79.07191193225269</v>
       </c>
       <c r="O3" t="n">
         <v>263.0434990833253</v>
       </c>
       <c r="P3" t="n">
-        <v>61.9814468973745</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903812</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>30.4508996191905</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025374</v>
+        <v>2.297740302025373</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>6.370323552522133</v>
       </c>
       <c r="K6" t="n">
-        <v>138.7877391315785</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>248.6418854471727</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="N6" t="n">
-        <v>158.2658797799248</v>
+        <v>276.1565137023555</v>
       </c>
       <c r="O6" t="n">
-        <v>269.1887005891756</v>
+        <v>87.27013098543772</v>
       </c>
       <c r="P6" t="n">
         <v>198.8728484821096</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.71116244199196</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K11" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L11" t="n">
-        <v>764.0956972722058</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M11" t="n">
-        <v>681.6851173749271</v>
+        <v>1074.200720286808</v>
       </c>
       <c r="N11" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O11" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P11" t="n">
         <v>515.6792123176533</v>
       </c>
       <c r="Q11" t="n">
-        <v>550.9092631260805</v>
+        <v>338.5942724661758</v>
       </c>
       <c r="R11" t="n">
         <v>110.6857845169376</v>
@@ -35489,28 +35489,28 @@
         <v>135.723230549101</v>
       </c>
       <c r="K12" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L12" t="n">
-        <v>255.1176738568116</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M12" t="n">
-        <v>562.0180816415532</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>352.2791870183347</v>
       </c>
       <c r="P12" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q12" t="n">
-        <v>214.7636503793098</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R12" t="n">
-        <v>26.86640823818118</v>
+        <v>26.86640823818121</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L13" t="n">
         <v>373.9790671591476</v>
@@ -35580,10 +35580,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O13" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P13" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q13" t="n">
         <v>108.9333135374787</v>
@@ -35644,25 +35644,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K14" t="n">
-        <v>511.3308539033011</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L14" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M14" t="n">
-        <v>681.6851173749271</v>
+        <v>1074.200720286808</v>
       </c>
       <c r="N14" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O14" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P14" t="n">
-        <v>837.4779204891358</v>
+        <v>515.6792123176533</v>
       </c>
       <c r="Q14" t="n">
         <v>338.5942724661758</v>
@@ -35726,25 +35726,25 @@
         <v>135.723230549101</v>
       </c>
       <c r="K15" t="n">
-        <v>128.0443997003936</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L15" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M15" t="n">
-        <v>562.0180816415532</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>379.1455952565158</v>
       </c>
       <c r="P15" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q15" t="n">
-        <v>214.7636503793098</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L16" t="n">
         <v>373.9790671591476</v>
@@ -35817,10 +35817,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O16" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P16" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q16" t="n">
         <v>108.9333135374787</v>
@@ -35881,25 +35881,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K17" t="n">
-        <v>764.7593717340652</v>
+        <v>764.7593717340653</v>
       </c>
       <c r="L17" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M17" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N17" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O17" t="n">
-        <v>645.042333587113</v>
+        <v>713.4125239278294</v>
       </c>
       <c r="P17" t="n">
-        <v>584.0494026583701</v>
+        <v>515.6792123176533</v>
       </c>
       <c r="Q17" t="n">
         <v>338.5942724661758</v>
@@ -35963,28 +35963,28 @@
         <v>135.723230549101</v>
       </c>
       <c r="K18" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L18" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>352.2791870183348</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O18" t="n">
-        <v>518.6144152920463</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q18" t="n">
-        <v>48.42842210559912</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R18" t="n">
-        <v>26.86640823818118</v>
+        <v>26.86640823818121</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K19" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L19" t="n">
         <v>373.9790671591476</v>
@@ -36054,10 +36054,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O19" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P19" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q19" t="n">
         <v>108.9333135374787</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>428.8899941698995</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K20" t="n">
-        <v>451.7179562428039</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L20" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M20" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N20" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O20" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P20" t="n">
-        <v>515.6792123176533</v>
+        <v>630.1634046966471</v>
       </c>
       <c r="Q20" t="n">
         <v>550.9092631260805</v>
       </c>
       <c r="R20" t="n">
-        <v>110.6857845169376</v>
+        <v>176.4022043899201</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>135.723230549101</v>
       </c>
       <c r="K21" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L21" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M21" t="n">
-        <v>562.0180816415532</v>
+        <v>379.1455952565159</v>
       </c>
       <c r="N21" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q21" t="n">
-        <v>167.6143945433744</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K22" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L22" t="n">
         <v>373.9790671591476</v>
@@ -36291,10 +36291,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O22" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P22" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q22" t="n">
         <v>108.9333135374787</v>
@@ -36355,22 +36355,22 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>259.7933789978258</v>
+        <v>428.8899941698996</v>
       </c>
       <c r="K23" t="n">
-        <v>620.8145714148776</v>
+        <v>451.7179562428029</v>
       </c>
       <c r="L23" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M23" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N23" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O23" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P23" t="n">
         <v>515.6792123176533</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>135.723230549101</v>
       </c>
       <c r="K24" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L24" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M24" t="n">
-        <v>562.0180816415532</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>25.68354358121117</v>
+        <v>425.1119864354814</v>
       </c>
       <c r="O24" t="n">
-        <v>518.6144152920463</v>
+        <v>518.6144152920464</v>
       </c>
       <c r="P24" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q24" t="n">
-        <v>214.7636503793098</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>26.86640823818121</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K25" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L25" t="n">
         <v>373.9790671591476</v>
@@ -36528,10 +36528,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O25" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P25" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q25" t="n">
         <v>108.9333135374787</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>259.7933789978258</v>
+        <v>428.8899941698996</v>
       </c>
       <c r="K26" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L26" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M26" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N26" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O26" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P26" t="n">
-        <v>695.8798245696302</v>
+        <v>739.0982000574598</v>
       </c>
       <c r="Q26" t="n">
-        <v>550.9092631260805</v>
+        <v>338.5942724661758</v>
       </c>
       <c r="R26" t="n">
         <v>110.6857845169376</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>135.723230549101</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L27" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M27" t="n">
-        <v>307.1712965990016</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N27" t="n">
-        <v>591.4472147091928</v>
+        <v>408.5747283241554</v>
       </c>
       <c r="O27" t="n">
-        <v>518.6144152920463</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q27" t="n">
-        <v>214.7636503793098</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K28" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L28" t="n">
         <v>373.9790671591476</v>
@@ -36765,10 +36765,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O28" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P28" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q28" t="n">
         <v>108.9333135374787</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>428.8899941698995</v>
+        <v>428.8899941698996</v>
       </c>
       <c r="K29" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L29" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M29" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N29" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O29" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P29" t="n">
-        <v>526.7832093975564</v>
+        <v>739.0982000574598</v>
       </c>
       <c r="Q29" t="n">
-        <v>550.9092631260805</v>
+        <v>338.5942724661758</v>
       </c>
       <c r="R29" t="n">
         <v>110.6857845169376</v>
@@ -36911,22 +36911,22 @@
         <v>135.723230549101</v>
       </c>
       <c r="K30" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L30" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M30" t="n">
-        <v>75.29483034378048</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N30" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O30" t="n">
-        <v>518.6144152920463</v>
+        <v>428.5966043799555</v>
       </c>
       <c r="P30" t="n">
-        <v>396.7054403856833</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>71.36306391214043</v>
+        <v>71.36306391214046</v>
       </c>
       <c r="K31" t="n">
-        <v>248.4197557873655</v>
+        <v>248.4197557873656</v>
       </c>
       <c r="L31" t="n">
         <v>373.9790671591476</v>
@@ -37002,10 +37002,10 @@
         <v>400.6667658904817</v>
       </c>
       <c r="O31" t="n">
-        <v>353.9025318178572</v>
+        <v>353.9025318178573</v>
       </c>
       <c r="P31" t="n">
-        <v>279.066489644131</v>
+        <v>279.0664896441311</v>
       </c>
       <c r="Q31" t="n">
         <v>108.9333135374787</v>
@@ -37066,22 +37066,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K32" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L32" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M32" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N32" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O32" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P32" t="n">
         <v>515.6792123176533</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L33" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M33" t="n">
-        <v>562.0180816415532</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>309.7340214284601</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O33" t="n">
-        <v>518.6144152920463</v>
+        <v>514.868825805617</v>
       </c>
       <c r="P33" t="n">
-        <v>396.7054403856833</v>
+        <v>396.7054403856835</v>
       </c>
       <c r="Q33" t="n">
-        <v>214.7636503793098</v>
+        <v>214.7636503793099</v>
       </c>
       <c r="R33" t="n">
-        <v>26.86640823818118</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37233,10 +37233,10 @@
         <v>404.4586257991895</v>
       </c>
       <c r="M34" t="n">
-        <v>435.2821129567528</v>
+        <v>435.2821129567529</v>
       </c>
       <c r="N34" t="n">
-        <v>431.1463245305235</v>
+        <v>431.1463245305236</v>
       </c>
       <c r="O34" t="n">
         <v>384.3820904578992</v>
@@ -37245,7 +37245,7 @@
         <v>309.546048284173</v>
       </c>
       <c r="Q34" t="n">
-        <v>139.4128721775206</v>
+        <v>139.4128721775207</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K35" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L35" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M35" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N35" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O35" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P35" t="n">
         <v>515.6792123176533</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>45.70541963701061</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L36" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M36" t="n">
-        <v>562.0180816415532</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N36" t="n">
-        <v>309.7340214284601</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O36" t="n">
-        <v>518.6144152920463</v>
+        <v>518.6144152920464</v>
       </c>
       <c r="P36" t="n">
-        <v>396.7054403856833</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>214.7636503793098</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>26.86640823818118</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>435.2821129567528</v>
       </c>
       <c r="N37" t="n">
-        <v>431.1463245305236</v>
+        <v>431.1463245305235</v>
       </c>
       <c r="O37" t="n">
         <v>384.3820904578992</v>
@@ -37540,22 +37540,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K38" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L38" t="n">
         <v>583.895085020227</v>
       </c>
       <c r="M38" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N38" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O38" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P38" t="n">
         <v>515.6792123176533</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>135.723230549101</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L39" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M39" t="n">
-        <v>562.0180816415532</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N39" t="n">
-        <v>591.4472147091928</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O39" t="n">
-        <v>263.7676302494946</v>
+        <v>428.5966043799555</v>
       </c>
       <c r="P39" t="n">
-        <v>396.7054403856833</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>214.7636503793098</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37707,7 +37707,7 @@
         <v>404.4586257991895</v>
       </c>
       <c r="M40" t="n">
-        <v>435.2821129567528</v>
+        <v>435.2821129567529</v>
       </c>
       <c r="N40" t="n">
         <v>431.1463245305236</v>
@@ -37719,7 +37719,7 @@
         <v>309.546048284173</v>
       </c>
       <c r="Q40" t="n">
-        <v>139.4128721775206</v>
+        <v>139.4128721775207</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K41" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629006</v>
       </c>
       <c r="L41" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M41" t="n">
-        <v>681.6851173749271</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N41" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O41" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P41" t="n">
         <v>515.6792123176533</v>
@@ -37859,22 +37859,22 @@
         <v>135.723230549101</v>
       </c>
       <c r="K42" t="n">
-        <v>310.9168860854301</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M42" t="n">
-        <v>562.0180816415532</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N42" t="n">
-        <v>569.5805318914489</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O42" t="n">
-        <v>518.6144152920463</v>
+        <v>428.5966043799555</v>
       </c>
       <c r="P42" t="n">
-        <v>396.7054403856833</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,13 +37938,13 @@
         <v>101.8426225521824</v>
       </c>
       <c r="K43" t="n">
-        <v>278.8993144274074</v>
+        <v>278.8993144274075</v>
       </c>
       <c r="L43" t="n">
         <v>404.4586257991895</v>
       </c>
       <c r="M43" t="n">
-        <v>435.2821129567528</v>
+        <v>435.2821129567529</v>
       </c>
       <c r="N43" t="n">
         <v>431.1463245305236</v>
@@ -37956,7 +37956,7 @@
         <v>309.546048284173</v>
       </c>
       <c r="Q43" t="n">
-        <v>139.4128721775206</v>
+        <v>139.4128721775207</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,22 +38014,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>259.7933789978258</v>
+        <v>259.7933789978259</v>
       </c>
       <c r="K44" t="n">
-        <v>440.6139591629005</v>
+        <v>440.6139591629014</v>
       </c>
       <c r="L44" t="n">
-        <v>583.8950850202268</v>
+        <v>583.895085020227</v>
       </c>
       <c r="M44" t="n">
-        <v>681.6851173749291</v>
+        <v>681.6851173749274</v>
       </c>
       <c r="N44" t="n">
         <v>697.3759077577736</v>
       </c>
       <c r="O44" t="n">
-        <v>645.042333587113</v>
+        <v>645.0423335871131</v>
       </c>
       <c r="P44" t="n">
         <v>515.6792123176533</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>135.723230549101</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>310.9168860854302</v>
       </c>
       <c r="L45" t="n">
-        <v>464.8565684800291</v>
+        <v>464.8565684800292</v>
       </c>
       <c r="M45" t="n">
-        <v>562.0180816415532</v>
+        <v>562.0180816415534</v>
       </c>
       <c r="N45" t="n">
-        <v>309.7340214284601</v>
+        <v>591.447214709193</v>
       </c>
       <c r="O45" t="n">
-        <v>518.6144152920463</v>
+        <v>428.5966043799555</v>
       </c>
       <c r="P45" t="n">
-        <v>396.7054403856833</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>214.7636503793098</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>26.86640823818118</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>404.4586257991895</v>
       </c>
       <c r="M46" t="n">
-        <v>435.2821129567528</v>
+        <v>435.2821129567529</v>
       </c>
       <c r="N46" t="n">
         <v>431.1463245305236</v>
